--- a/spreadsheets/US_Sub4_Milers.xlsx
+++ b/spreadsheets/US_Sub4_Milers.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rollerlj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ljcoo\NSS\Projects\United_States_Sub_4_Milers_Database\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F46AB3F-3B5B-4B00-B7EE-8E66620BE8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59CD2DE-C263-45B2-8D9A-8F9F7CB7E243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FC2F9DD0-DB5D-4A46-B58C-40A2751618EA}"/>
+    <workbookView xWindow="2736" yWindow="720" windowWidth="17280" windowHeight="10044" firstSheet="5" activeTab="7" xr2:uid="{FC2F9DD0-DB5D-4A46-B58C-40A2751618EA}"/>
   </bookViews>
   <sheets>
     <sheet name="US Sub-4 Milers" sheetId="1" r:id="rId1"/>
-    <sheet name="Sub-4 By Year" sheetId="2" r:id="rId2"/>
-    <sheet name="Sub-4 By Decade" sheetId="3" r:id="rId3"/>
-    <sheet name="Avg # of Runners Sub-4 Per Dec" sheetId="4" r:id="rId4"/>
+    <sheet name="General Stats" sheetId="5" r:id="rId2"/>
+    <sheet name="Sub-4 By Year" sheetId="2" r:id="rId3"/>
+    <sheet name="Sub-4 By Decade" sheetId="3" r:id="rId4"/>
+    <sheet name="Avg # of Runners Sub-4 Per Dec" sheetId="4" r:id="rId5"/>
+    <sheet name="Fastest American Father Son Duo" sheetId="6" r:id="rId6"/>
+    <sheet name="FS Duo General" sheetId="7" r:id="rId7"/>
+    <sheet name="FS Duo Avg" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'US Sub-4 Milers'!$O$1:$O$660</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'US Sub-4 Milers'!$G$1:$G$660</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,9 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6034" uniqueCount="1691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6135" uniqueCount="1733">
   <si>
     <t>Stockton</t>
   </si>
@@ -5113,6 +5115,132 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Medain</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Difference Between Fastest and Slowest Runner</t>
+  </si>
+  <si>
+    <t>First Quartile</t>
+  </si>
+  <si>
+    <t>Second Quartile</t>
+  </si>
+  <si>
+    <t>Third Quartile</t>
+  </si>
+  <si>
+    <t>Fourth Quartile</t>
+  </si>
+  <si>
+    <t>Average Milers</t>
+  </si>
+  <si>
+    <t>Milers Faster Than Average</t>
+  </si>
+  <si>
+    <t>Milers Slower Than Average</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Date of First Sub-4 Mile</t>
+  </si>
+  <si>
+    <t>Barry Brown</t>
+  </si>
+  <si>
+    <t>Darren Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5/13/1973</t>
+  </si>
+  <si>
+    <t>Matt Centrowitz</t>
+  </si>
+  <si>
+    <t>Centrowitz</t>
+  </si>
+  <si>
+    <t>Matthew Centrowitz</t>
+  </si>
+  <si>
+    <t>Mile PR</t>
+  </si>
+  <si>
+    <t>First Sub-4 Mile Time</t>
+  </si>
+  <si>
+    <t>Bair</t>
+  </si>
+  <si>
+    <t>Sam Bair III</t>
+  </si>
+  <si>
+    <t>Difference Between First and Fastest Mile</t>
+  </si>
+  <si>
+    <t>Gregorek</t>
+  </si>
+  <si>
+    <t>John Gregorek</t>
+  </si>
+  <si>
+    <t>John Gregorek Jr.</t>
+  </si>
+  <si>
+    <t> 2/13/2010</t>
+  </si>
+  <si>
+    <t>Alan Culpepper</t>
+  </si>
+  <si>
+    <t>Culpepper</t>
+  </si>
+  <si>
+    <t>Cruz Culpepper</t>
+  </si>
+  <si>
+    <t> Hacker </t>
+  </si>
+  <si>
+    <t> 7/01/21</t>
+  </si>
+  <si>
+    <t>Tim Hacker</t>
+  </si>
+  <si>
+    <t>Olin Hacker</t>
+  </si>
+  <si>
+    <t>Avg First Sub-4 Mile Time</t>
+  </si>
+  <si>
+    <t>Avg Mile PR</t>
+  </si>
+  <si>
+    <t>Avg. Difference Between First and Fastest Mile</t>
+  </si>
+  <si>
+    <t>Days Between First Sub-4 Mile</t>
+  </si>
+  <si>
+    <t>Hacker </t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -5150,15 +5278,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -5166,12 +5318,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5180,6 +5347,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="47" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5187,6 +5370,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5497,17 +5685,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D9636F-EAD1-4DF2-A536-0DC762862177}">
   <dimension ref="A1:O660"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G661" sqref="G661"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.90625" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -5554,7 +5742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1957</v>
       </c>
@@ -5601,7 +5789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1960</v>
       </c>
@@ -5648,7 +5836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1960</v>
       </c>
@@ -5695,7 +5883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1962</v>
       </c>
@@ -5742,7 +5930,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1962</v>
       </c>
@@ -5789,7 +5977,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1962</v>
       </c>
@@ -5836,7 +6024,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1962</v>
       </c>
@@ -5883,7 +6071,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1962</v>
       </c>
@@ -5930,7 +6118,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1963</v>
       </c>
@@ -5977,7 +6165,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1964</v>
       </c>
@@ -6024,7 +6212,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1964</v>
       </c>
@@ -6071,7 +6259,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1964</v>
       </c>
@@ -6118,7 +6306,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1964</v>
       </c>
@@ -6165,7 +6353,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1964</v>
       </c>
@@ -6212,7 +6400,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1965</v>
       </c>
@@ -6259,7 +6447,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1966</v>
       </c>
@@ -6306,7 +6494,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1966</v>
       </c>
@@ -6353,7 +6541,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1966</v>
       </c>
@@ -6400,7 +6588,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1966</v>
       </c>
@@ -6447,7 +6635,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1966</v>
       </c>
@@ -6494,7 +6682,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1967</v>
       </c>
@@ -6541,7 +6729,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1967</v>
       </c>
@@ -6588,7 +6776,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1967</v>
       </c>
@@ -6635,7 +6823,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1967</v>
       </c>
@@ -6682,7 +6870,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1967</v>
       </c>
@@ -6729,7 +6917,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1968</v>
       </c>
@@ -6776,7 +6964,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1968</v>
       </c>
@@ -6823,7 +7011,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1968</v>
       </c>
@@ -6870,7 +7058,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1968</v>
       </c>
@@ -6917,7 +7105,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1969</v>
       </c>
@@ -6964,7 +7152,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1969</v>
       </c>
@@ -7011,7 +7199,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1970</v>
       </c>
@@ -7058,7 +7246,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1970</v>
       </c>
@@ -7105,7 +7293,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1970</v>
       </c>
@@ -7152,7 +7340,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1970</v>
       </c>
@@ -7199,7 +7387,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1970</v>
       </c>
@@ -7246,7 +7434,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1970</v>
       </c>
@@ -7293,7 +7481,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1970</v>
       </c>
@@ -7340,7 +7528,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1970</v>
       </c>
@@ -7387,7 +7575,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1971</v>
       </c>
@@ -7434,7 +7622,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1971</v>
       </c>
@@ -7481,7 +7669,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1971</v>
       </c>
@@ -7528,7 +7716,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1971</v>
       </c>
@@ -7575,7 +7763,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1971</v>
       </c>
@@ -7622,7 +7810,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1971</v>
       </c>
@@ -7669,7 +7857,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1971</v>
       </c>
@@ -7716,7 +7904,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1972</v>
       </c>
@@ -7763,7 +7951,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1972</v>
       </c>
@@ -7810,7 +7998,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1972</v>
       </c>
@@ -7857,7 +8045,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1972</v>
       </c>
@@ -7904,7 +8092,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1973</v>
       </c>
@@ -7951,7 +8139,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1973</v>
       </c>
@@ -7998,7 +8186,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1973</v>
       </c>
@@ -8045,7 +8233,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1973</v>
       </c>
@@ -8092,7 +8280,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1973</v>
       </c>
@@ -8139,7 +8327,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1973</v>
       </c>
@@ -8186,7 +8374,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1973</v>
       </c>
@@ -8233,7 +8421,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1973</v>
       </c>
@@ -8280,7 +8468,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1973</v>
       </c>
@@ -8327,7 +8515,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1973</v>
       </c>
@@ -8374,7 +8562,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1973</v>
       </c>
@@ -8421,7 +8609,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1973</v>
       </c>
@@ -8468,7 +8656,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1974</v>
       </c>
@@ -8515,7 +8703,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1974</v>
       </c>
@@ -8562,7 +8750,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1974</v>
       </c>
@@ -8609,7 +8797,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1974</v>
       </c>
@@ -8656,7 +8844,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1974</v>
       </c>
@@ -8703,7 +8891,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1974</v>
       </c>
@@ -8750,7 +8938,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1974</v>
       </c>
@@ -8797,7 +8985,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1974</v>
       </c>
@@ -8844,7 +9032,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1974</v>
       </c>
@@ -8891,7 +9079,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1974</v>
       </c>
@@ -8938,7 +9126,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1974</v>
       </c>
@@ -8985,7 +9173,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1975</v>
       </c>
@@ -9032,7 +9220,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1975</v>
       </c>
@@ -9079,7 +9267,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1975</v>
       </c>
@@ -9126,7 +9314,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1975</v>
       </c>
@@ -9173,7 +9361,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1975</v>
       </c>
@@ -9220,7 +9408,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1975</v>
       </c>
@@ -9267,7 +9455,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1975</v>
       </c>
@@ -9314,7 +9502,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1976</v>
       </c>
@@ -9361,7 +9549,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1976</v>
       </c>
@@ -9408,7 +9596,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1977</v>
       </c>
@@ -9455,7 +9643,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1977</v>
       </c>
@@ -9502,7 +9690,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1977</v>
       </c>
@@ -9549,7 +9737,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1977</v>
       </c>
@@ -9596,7 +9784,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1978</v>
       </c>
@@ -9643,7 +9831,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1978</v>
       </c>
@@ -9690,7 +9878,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1978</v>
       </c>
@@ -9737,7 +9925,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1978</v>
       </c>
@@ -9784,7 +9972,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1978</v>
       </c>
@@ -9831,7 +10019,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1978</v>
       </c>
@@ -9878,7 +10066,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1978</v>
       </c>
@@ -9925,7 +10113,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1978</v>
       </c>
@@ -9972,7 +10160,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1978</v>
       </c>
@@ -10019,7 +10207,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1979</v>
       </c>
@@ -10066,7 +10254,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1979</v>
       </c>
@@ -10113,7 +10301,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1979</v>
       </c>
@@ -10160,7 +10348,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1979</v>
       </c>
@@ -10207,7 +10395,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1980</v>
       </c>
@@ -10254,7 +10442,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1980</v>
       </c>
@@ -10301,7 +10489,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1980</v>
       </c>
@@ -10348,7 +10536,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1980</v>
       </c>
@@ -10395,7 +10583,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1980</v>
       </c>
@@ -10442,7 +10630,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1980</v>
       </c>
@@ -10489,7 +10677,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1980</v>
       </c>
@@ -10536,7 +10724,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1980</v>
       </c>
@@ -10583,7 +10771,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1981</v>
       </c>
@@ -10630,7 +10818,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1981</v>
       </c>
@@ -10677,7 +10865,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1981</v>
       </c>
@@ -10724,7 +10912,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1981</v>
       </c>
@@ -10771,7 +10959,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1981</v>
       </c>
@@ -10818,7 +11006,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1981</v>
       </c>
@@ -10865,7 +11053,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1981</v>
       </c>
@@ -10912,7 +11100,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1981</v>
       </c>
@@ -10959,7 +11147,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1981</v>
       </c>
@@ -11006,7 +11194,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1982</v>
       </c>
@@ -11053,7 +11241,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1982</v>
       </c>
@@ -11100,7 +11288,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1982</v>
       </c>
@@ -11147,7 +11335,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1982</v>
       </c>
@@ -11194,7 +11382,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1982</v>
       </c>
@@ -11241,7 +11429,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1982</v>
       </c>
@@ -11288,7 +11476,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1982</v>
       </c>
@@ -11335,7 +11523,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1982</v>
       </c>
@@ -11382,7 +11570,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1982</v>
       </c>
@@ -11429,7 +11617,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1983</v>
       </c>
@@ -11476,7 +11664,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1983</v>
       </c>
@@ -11523,7 +11711,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1983</v>
       </c>
@@ -11570,7 +11758,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1983</v>
       </c>
@@ -11617,7 +11805,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1983</v>
       </c>
@@ -11664,7 +11852,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1983</v>
       </c>
@@ -11711,7 +11899,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1983</v>
       </c>
@@ -11758,7 +11946,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1983</v>
       </c>
@@ -11805,7 +11993,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1984</v>
       </c>
@@ -11852,7 +12040,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1984</v>
       </c>
@@ -11899,7 +12087,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1984</v>
       </c>
@@ -11946,7 +12134,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1984</v>
       </c>
@@ -11993,7 +12181,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1985</v>
       </c>
@@ -12040,7 +12228,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1985</v>
       </c>
@@ -12087,7 +12275,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1985</v>
       </c>
@@ -12134,7 +12322,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1985</v>
       </c>
@@ -12181,7 +12369,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1985</v>
       </c>
@@ -12228,7 +12416,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1986</v>
       </c>
@@ -12275,7 +12463,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1986</v>
       </c>
@@ -12322,7 +12510,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1986</v>
       </c>
@@ -12369,7 +12557,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1986</v>
       </c>
@@ -12416,7 +12604,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1986</v>
       </c>
@@ -12463,7 +12651,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1986</v>
       </c>
@@ -12510,7 +12698,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1987</v>
       </c>
@@ -12557,7 +12745,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1987</v>
       </c>
@@ -12604,7 +12792,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1987</v>
       </c>
@@ -12651,7 +12839,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1987</v>
       </c>
@@ -12698,7 +12886,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1987</v>
       </c>
@@ -12745,7 +12933,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1988</v>
       </c>
@@ -12792,7 +12980,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1988</v>
       </c>
@@ -12839,7 +13027,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1988</v>
       </c>
@@ -12886,7 +13074,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1988</v>
       </c>
@@ -12933,7 +13121,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1988</v>
       </c>
@@ -12980,7 +13168,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1988</v>
       </c>
@@ -13027,7 +13215,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1988</v>
       </c>
@@ -13074,7 +13262,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1988</v>
       </c>
@@ -13121,7 +13309,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1989</v>
       </c>
@@ -13168,7 +13356,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1989</v>
       </c>
@@ -13215,7 +13403,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1989</v>
       </c>
@@ -13262,7 +13450,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1989</v>
       </c>
@@ -13309,7 +13497,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1989</v>
       </c>
@@ -13356,7 +13544,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1989</v>
       </c>
@@ -13403,7 +13591,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1989</v>
       </c>
@@ -13450,7 +13638,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1990</v>
       </c>
@@ -13497,7 +13685,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1990</v>
       </c>
@@ -13544,7 +13732,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1990</v>
       </c>
@@ -13591,7 +13779,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1991</v>
       </c>
@@ -13638,7 +13826,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1991</v>
       </c>
@@ -13685,7 +13873,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1991</v>
       </c>
@@ -13732,7 +13920,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1991</v>
       </c>
@@ -13779,7 +13967,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1991</v>
       </c>
@@ -13826,7 +14014,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1991</v>
       </c>
@@ -13873,7 +14061,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1991</v>
       </c>
@@ -13920,7 +14108,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1991</v>
       </c>
@@ -13967,7 +14155,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1991</v>
       </c>
@@ -14014,7 +14202,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1991</v>
       </c>
@@ -14061,7 +14249,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1991</v>
       </c>
@@ -14108,7 +14296,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1991</v>
       </c>
@@ -14155,7 +14343,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1992</v>
       </c>
@@ -14202,7 +14390,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1992</v>
       </c>
@@ -14249,7 +14437,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1992</v>
       </c>
@@ -14296,7 +14484,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1992</v>
       </c>
@@ -14343,7 +14531,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1993</v>
       </c>
@@ -14390,7 +14578,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1993</v>
       </c>
@@ -14437,7 +14625,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1993</v>
       </c>
@@ -14484,7 +14672,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1993</v>
       </c>
@@ -14531,7 +14719,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1993</v>
       </c>
@@ -14578,7 +14766,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1993</v>
       </c>
@@ -14625,7 +14813,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1993</v>
       </c>
@@ -14672,7 +14860,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1994</v>
       </c>
@@ -14719,7 +14907,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1994</v>
       </c>
@@ -14766,7 +14954,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1994</v>
       </c>
@@ -14813,7 +15001,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1994</v>
       </c>
@@ -14860,7 +15048,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1994</v>
       </c>
@@ -14907,7 +15095,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1994</v>
       </c>
@@ -14954,7 +15142,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1994</v>
       </c>
@@ -15001,7 +15189,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1994</v>
       </c>
@@ -15048,7 +15236,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1994</v>
       </c>
@@ -15095,7 +15283,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1995</v>
       </c>
@@ -15142,7 +15330,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1995</v>
       </c>
@@ -15189,7 +15377,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1995</v>
       </c>
@@ -15236,7 +15424,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1995</v>
       </c>
@@ -15283,7 +15471,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1995</v>
       </c>
@@ -15330,7 +15518,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1995</v>
       </c>
@@ -15377,7 +15565,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1996</v>
       </c>
@@ -15424,7 +15612,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1996</v>
       </c>
@@ -15471,7 +15659,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1997</v>
       </c>
@@ -15518,7 +15706,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1997</v>
       </c>
@@ -15565,7 +15753,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1997</v>
       </c>
@@ -15612,7 +15800,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1997</v>
       </c>
@@ -15659,7 +15847,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1997</v>
       </c>
@@ -15706,7 +15894,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1997</v>
       </c>
@@ -15753,7 +15941,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1997</v>
       </c>
@@ -15800,7 +15988,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1997</v>
       </c>
@@ -15847,7 +16035,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1998</v>
       </c>
@@ -15894,7 +16082,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1998</v>
       </c>
@@ -15941,7 +16129,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1998</v>
       </c>
@@ -15988,7 +16176,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1998</v>
       </c>
@@ -16035,7 +16223,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1998</v>
       </c>
@@ -16082,7 +16270,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1998</v>
       </c>
@@ -16129,7 +16317,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1998</v>
       </c>
@@ -16176,7 +16364,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1998</v>
       </c>
@@ -16223,7 +16411,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1999</v>
       </c>
@@ -16270,7 +16458,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1999</v>
       </c>
@@ -16317,7 +16505,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1999</v>
       </c>
@@ -16364,7 +16552,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1999</v>
       </c>
@@ -16411,7 +16599,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>2000</v>
       </c>
@@ -16458,7 +16646,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>2000</v>
       </c>
@@ -16505,7 +16693,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>2000</v>
       </c>
@@ -16552,7 +16740,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>2000</v>
       </c>
@@ -16599,7 +16787,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>2000</v>
       </c>
@@ -16646,7 +16834,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>2000</v>
       </c>
@@ -16693,7 +16881,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>2001</v>
       </c>
@@ -16740,7 +16928,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>2001</v>
       </c>
@@ -16787,7 +16975,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>2001</v>
       </c>
@@ -16834,7 +17022,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>2001</v>
       </c>
@@ -16881,7 +17069,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>2001</v>
       </c>
@@ -16901,7 +17089,7 @@
         <v>96</v>
       </c>
       <c r="G243" s="2">
-        <v>2.7776620370370368E-3</v>
+        <v>2.7766203703703703E-3</v>
       </c>
       <c r="H243" t="s">
         <v>102</v>
@@ -16928,7 +17116,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>2001</v>
       </c>
@@ -16975,7 +17163,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>2001</v>
       </c>
@@ -17022,7 +17210,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>2001</v>
       </c>
@@ -17069,7 +17257,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>2002</v>
       </c>
@@ -17116,7 +17304,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>2002</v>
       </c>
@@ -17163,7 +17351,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>2002</v>
       </c>
@@ -17210,7 +17398,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>2002</v>
       </c>
@@ -17257,7 +17445,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>2002</v>
       </c>
@@ -17304,7 +17492,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>2002</v>
       </c>
@@ -17351,7 +17539,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>2002</v>
       </c>
@@ -17398,7 +17586,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>2003</v>
       </c>
@@ -17445,7 +17633,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>2003</v>
       </c>
@@ -17492,7 +17680,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>2003</v>
       </c>
@@ -17539,7 +17727,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>2003</v>
       </c>
@@ -17586,7 +17774,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>2003</v>
       </c>
@@ -17633,7 +17821,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>2004</v>
       </c>
@@ -17680,7 +17868,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>2004</v>
       </c>
@@ -17700,7 +17888,7 @@
         <v>96</v>
       </c>
       <c r="G260" s="2">
-        <v>2.7776620370370368E-3</v>
+        <v>2.7766203703703703E-3</v>
       </c>
       <c r="H260" t="s">
         <v>102</v>
@@ -17727,7 +17915,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>2004</v>
       </c>
@@ -17774,7 +17962,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>2004</v>
       </c>
@@ -17821,7 +18009,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>2004</v>
       </c>
@@ -17868,7 +18056,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>2004</v>
       </c>
@@ -17915,7 +18103,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>2004</v>
       </c>
@@ -17962,7 +18150,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>2005</v>
       </c>
@@ -18009,7 +18197,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>2005</v>
       </c>
@@ -18056,7 +18244,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>2005</v>
       </c>
@@ -18103,7 +18291,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>2005</v>
       </c>
@@ -18150,7 +18338,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>2005</v>
       </c>
@@ -18197,7 +18385,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>2005</v>
       </c>
@@ -18244,7 +18432,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>2005</v>
       </c>
@@ -18291,7 +18479,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>2005</v>
       </c>
@@ -18338,7 +18526,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>2006</v>
       </c>
@@ -18385,7 +18573,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>2006</v>
       </c>
@@ -18432,7 +18620,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>2006</v>
       </c>
@@ -18479,7 +18667,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>2006</v>
       </c>
@@ -18526,7 +18714,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>2006</v>
       </c>
@@ -18573,7 +18761,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>2006</v>
       </c>
@@ -18620,7 +18808,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>2006</v>
       </c>
@@ -18667,7 +18855,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>2006</v>
       </c>
@@ -18714,7 +18902,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>2006</v>
       </c>
@@ -18761,7 +18949,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>2006</v>
       </c>
@@ -18808,7 +18996,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>2006</v>
       </c>
@@ -18855,7 +19043,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>2006</v>
       </c>
@@ -18902,7 +19090,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>2007</v>
       </c>
@@ -18949,7 +19137,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>2007</v>
       </c>
@@ -18996,7 +19184,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>2007</v>
       </c>
@@ -19043,7 +19231,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>2007</v>
       </c>
@@ -19090,7 +19278,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>2007</v>
       </c>
@@ -19137,7 +19325,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2007</v>
       </c>
@@ -19184,7 +19372,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>2007</v>
       </c>
@@ -19231,7 +19419,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>2007</v>
       </c>
@@ -19278,7 +19466,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>2007</v>
       </c>
@@ -19325,7 +19513,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>2007</v>
       </c>
@@ -19372,7 +19560,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>2007</v>
       </c>
@@ -19419,7 +19607,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>2007</v>
       </c>
@@ -19466,7 +19654,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>2007</v>
       </c>
@@ -19513,7 +19701,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>2008</v>
       </c>
@@ -19560,7 +19748,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>2008</v>
       </c>
@@ -19607,7 +19795,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>2008</v>
       </c>
@@ -19654,7 +19842,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>2008</v>
       </c>
@@ -19701,7 +19889,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>2008</v>
       </c>
@@ -19748,7 +19936,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>2008</v>
       </c>
@@ -19795,7 +19983,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>2008</v>
       </c>
@@ -19842,7 +20030,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>2008</v>
       </c>
@@ -19889,7 +20077,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>2008</v>
       </c>
@@ -19936,7 +20124,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>2008</v>
       </c>
@@ -19983,7 +20171,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>2008</v>
       </c>
@@ -20030,7 +20218,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>2008</v>
       </c>
@@ -20077,7 +20265,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>2008</v>
       </c>
@@ -20124,7 +20312,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>2008</v>
       </c>
@@ -20171,7 +20359,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>2008</v>
       </c>
@@ -20218,7 +20406,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>2009</v>
       </c>
@@ -20265,7 +20453,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>2009</v>
       </c>
@@ -20312,7 +20500,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>2009</v>
       </c>
@@ -20359,7 +20547,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>2009</v>
       </c>
@@ -20406,7 +20594,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>2009</v>
       </c>
@@ -20453,7 +20641,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>2009</v>
       </c>
@@ -20500,7 +20688,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>2009</v>
       </c>
@@ -20547,7 +20735,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>2009</v>
       </c>
@@ -20594,7 +20782,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>2009</v>
       </c>
@@ -20641,7 +20829,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>2009</v>
       </c>
@@ -20688,7 +20876,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>2009</v>
       </c>
@@ -20735,7 +20923,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>2009</v>
       </c>
@@ -20782,7 +20970,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>2009</v>
       </c>
@@ -20829,7 +21017,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>2009</v>
       </c>
@@ -20876,7 +21064,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>2009</v>
       </c>
@@ -20923,7 +21111,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>2009</v>
       </c>
@@ -20970,7 +21158,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>2009</v>
       </c>
@@ -21017,7 +21205,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>2010</v>
       </c>
@@ -21064,7 +21252,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>2010</v>
       </c>
@@ -21111,7 +21299,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>2010</v>
       </c>
@@ -21158,7 +21346,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>2010</v>
       </c>
@@ -21205,7 +21393,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>2010</v>
       </c>
@@ -21252,7 +21440,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>2010</v>
       </c>
@@ -21299,7 +21487,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>2010</v>
       </c>
@@ -21346,7 +21534,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>2010</v>
       </c>
@@ -21393,7 +21581,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>2010</v>
       </c>
@@ -21440,7 +21628,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>2010</v>
       </c>
@@ -21487,7 +21675,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>2010</v>
       </c>
@@ -21534,7 +21722,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>2010</v>
       </c>
@@ -21581,7 +21769,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>2010</v>
       </c>
@@ -21628,7 +21816,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>2010</v>
       </c>
@@ -21675,7 +21863,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>2010</v>
       </c>
@@ -21722,7 +21910,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>2010</v>
       </c>
@@ -21769,7 +21957,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>2010</v>
       </c>
@@ -21816,7 +22004,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>2010</v>
       </c>
@@ -21863,7 +22051,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>2010</v>
       </c>
@@ -21910,7 +22098,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>2010</v>
       </c>
@@ -21957,7 +22145,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>2011</v>
       </c>
@@ -22004,7 +22192,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>2011</v>
       </c>
@@ -22051,7 +22239,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>2011</v>
       </c>
@@ -22098,7 +22286,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>2011</v>
       </c>
@@ -22145,7 +22333,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>2011</v>
       </c>
@@ -22192,7 +22380,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>2011</v>
       </c>
@@ -22239,7 +22427,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>2011</v>
       </c>
@@ -22286,7 +22474,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>2011</v>
       </c>
@@ -22333,7 +22521,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>2011</v>
       </c>
@@ -22380,7 +22568,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>2011</v>
       </c>
@@ -22427,7 +22615,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>2011</v>
       </c>
@@ -22474,7 +22662,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>2011</v>
       </c>
@@ -22521,7 +22709,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>2012</v>
       </c>
@@ -22568,7 +22756,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>2012</v>
       </c>
@@ -22615,7 +22803,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>2012</v>
       </c>
@@ -22662,7 +22850,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>2012</v>
       </c>
@@ -22709,7 +22897,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>2012</v>
       </c>
@@ -22756,7 +22944,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>2012</v>
       </c>
@@ -22803,7 +22991,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>2012</v>
       </c>
@@ -22850,7 +23038,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>2012</v>
       </c>
@@ -22897,7 +23085,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>2012</v>
       </c>
@@ -22944,7 +23132,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>2012</v>
       </c>
@@ -22991,7 +23179,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>2012</v>
       </c>
@@ -23038,7 +23226,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>2012</v>
       </c>
@@ -23085,7 +23273,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>2012</v>
       </c>
@@ -23132,7 +23320,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>2012</v>
       </c>
@@ -23179,7 +23367,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>2012</v>
       </c>
@@ -23226,7 +23414,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>2012</v>
       </c>
@@ -23273,7 +23461,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>2012</v>
       </c>
@@ -23320,7 +23508,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>2012</v>
       </c>
@@ -23367,7 +23555,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>2012</v>
       </c>
@@ -23414,7 +23602,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>2012</v>
       </c>
@@ -23461,7 +23649,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>2012</v>
       </c>
@@ -23508,7 +23696,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>2012</v>
       </c>
@@ -23555,7 +23743,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>2012</v>
       </c>
@@ -23602,7 +23790,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>2013</v>
       </c>
@@ -23649,7 +23837,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>2013</v>
       </c>
@@ -23696,7 +23884,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>2013</v>
       </c>
@@ -23743,7 +23931,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>2013</v>
       </c>
@@ -23790,7 +23978,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>2013</v>
       </c>
@@ -23837,7 +24025,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>2013</v>
       </c>
@@ -23884,7 +24072,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>2013</v>
       </c>
@@ -23931,7 +24119,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>2013</v>
       </c>
@@ -23978,7 +24166,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>2013</v>
       </c>
@@ -24025,7 +24213,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>2013</v>
       </c>
@@ -24072,7 +24260,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>2013</v>
       </c>
@@ -24119,7 +24307,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>2013</v>
       </c>
@@ -24166,7 +24354,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>2013</v>
       </c>
@@ -24213,7 +24401,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>2013</v>
       </c>
@@ -24260,7 +24448,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>2013</v>
       </c>
@@ -24307,7 +24495,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>2013</v>
       </c>
@@ -24354,7 +24542,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>2013</v>
       </c>
@@ -24401,7 +24589,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>2013</v>
       </c>
@@ -24448,7 +24636,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>2013</v>
       </c>
@@ -24495,7 +24683,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>2013</v>
       </c>
@@ -24542,7 +24730,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>2013</v>
       </c>
@@ -24589,7 +24777,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>2013</v>
       </c>
@@ -24636,7 +24824,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>2013</v>
       </c>
@@ -24683,7 +24871,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>2014</v>
       </c>
@@ -24730,7 +24918,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>2014</v>
       </c>
@@ -24777,7 +24965,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>2014</v>
       </c>
@@ -24824,7 +25012,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>2014</v>
       </c>
@@ -24871,7 +25059,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>2014</v>
       </c>
@@ -24918,7 +25106,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>2014</v>
       </c>
@@ -24965,7 +25153,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>2014</v>
       </c>
@@ -25012,7 +25200,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>2014</v>
       </c>
@@ -25059,7 +25247,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>2014</v>
       </c>
@@ -25106,7 +25294,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>2014</v>
       </c>
@@ -25153,7 +25341,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>2014</v>
       </c>
@@ -25200,7 +25388,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>2014</v>
       </c>
@@ -25247,7 +25435,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>2014</v>
       </c>
@@ -25294,7 +25482,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>2014</v>
       </c>
@@ -25341,7 +25529,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>2014</v>
       </c>
@@ -25388,7 +25576,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>2014</v>
       </c>
@@ -25435,7 +25623,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>2014</v>
       </c>
@@ -25482,7 +25670,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>2014</v>
       </c>
@@ -25529,7 +25717,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>2015</v>
       </c>
@@ -25576,7 +25764,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>2015</v>
       </c>
@@ -25623,7 +25811,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>2015</v>
       </c>
@@ -25670,7 +25858,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>2015</v>
       </c>
@@ -25717,7 +25905,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>2015</v>
       </c>
@@ -25764,7 +25952,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>2015</v>
       </c>
@@ -25811,7 +25999,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>2015</v>
       </c>
@@ -25858,7 +26046,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>2015</v>
       </c>
@@ -25905,7 +26093,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>2015</v>
       </c>
@@ -25952,7 +26140,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>2015</v>
       </c>
@@ -25999,7 +26187,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>2015</v>
       </c>
@@ -26046,7 +26234,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>2015</v>
       </c>
@@ -26093,7 +26281,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>2015</v>
       </c>
@@ -26140,7 +26328,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>2015</v>
       </c>
@@ -26187,7 +26375,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>2015</v>
       </c>
@@ -26234,7 +26422,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>2015</v>
       </c>
@@ -26281,7 +26469,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>2015</v>
       </c>
@@ -26328,7 +26516,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>2015</v>
       </c>
@@ -26375,7 +26563,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>2015</v>
       </c>
@@ -26422,7 +26610,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>2015</v>
       </c>
@@ -26469,7 +26657,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>2015</v>
       </c>
@@ -26516,7 +26704,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>2015</v>
       </c>
@@ -26563,7 +26751,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>2015</v>
       </c>
@@ -26610,7 +26798,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>2015</v>
       </c>
@@ -26657,7 +26845,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>2016</v>
       </c>
@@ -26704,7 +26892,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>2016</v>
       </c>
@@ -26751,7 +26939,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>2016</v>
       </c>
@@ -26798,7 +26986,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>2016</v>
       </c>
@@ -26845,7 +27033,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>2016</v>
       </c>
@@ -26892,7 +27080,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>2016</v>
       </c>
@@ -26939,7 +27127,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>2016</v>
       </c>
@@ -26986,7 +27174,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>2016</v>
       </c>
@@ -27033,7 +27221,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>2016</v>
       </c>
@@ -27080,7 +27268,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>2016</v>
       </c>
@@ -27127,7 +27315,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>2016</v>
       </c>
@@ -27174,7 +27362,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>2016</v>
       </c>
@@ -27221,7 +27409,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>2016</v>
       </c>
@@ -27268,7 +27456,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>2016</v>
       </c>
@@ -27315,7 +27503,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>2016</v>
       </c>
@@ -27362,7 +27550,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>2016</v>
       </c>
@@ -27409,7 +27597,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>2016</v>
       </c>
@@ -27456,7 +27644,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>2016</v>
       </c>
@@ -27503,7 +27691,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>2016</v>
       </c>
@@ -27550,7 +27738,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>2016</v>
       </c>
@@ -27597,7 +27785,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>2016</v>
       </c>
@@ -27644,7 +27832,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>2016</v>
       </c>
@@ -27691,7 +27879,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>2016</v>
       </c>
@@ -27738,7 +27926,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>2016</v>
       </c>
@@ -27785,7 +27973,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>2016</v>
       </c>
@@ -27832,7 +28020,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>2016</v>
       </c>
@@ -27879,7 +28067,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>2016</v>
       </c>
@@ -27926,7 +28114,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>2017</v>
       </c>
@@ -27973,7 +28161,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>2017</v>
       </c>
@@ -28020,7 +28208,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>2017</v>
       </c>
@@ -28067,7 +28255,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>2017</v>
       </c>
@@ -28114,7 +28302,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>2017</v>
       </c>
@@ -28161,7 +28349,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>2017</v>
       </c>
@@ -28208,7 +28396,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>2017</v>
       </c>
@@ -28255,7 +28443,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>2017</v>
       </c>
@@ -28302,7 +28490,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>2017</v>
       </c>
@@ -28349,7 +28537,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>2017</v>
       </c>
@@ -28396,7 +28584,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>2017</v>
       </c>
@@ -28443,7 +28631,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>2017</v>
       </c>
@@ -28490,7 +28678,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>2017</v>
       </c>
@@ -28537,7 +28725,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>2017</v>
       </c>
@@ -28584,7 +28772,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>2017</v>
       </c>
@@ -28631,7 +28819,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>2017</v>
       </c>
@@ -28678,7 +28866,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>2017</v>
       </c>
@@ -28725,7 +28913,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>2018</v>
       </c>
@@ -28772,7 +28960,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>2018</v>
       </c>
@@ -28819,7 +29007,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>2018</v>
       </c>
@@ -28866,7 +29054,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>2018</v>
       </c>
@@ -28913,7 +29101,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>2018</v>
       </c>
@@ -28960,7 +29148,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>2018</v>
       </c>
@@ -29007,7 +29195,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>2018</v>
       </c>
@@ -29054,7 +29242,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>2018</v>
       </c>
@@ -29101,7 +29289,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>2018</v>
       </c>
@@ -29148,7 +29336,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>2018</v>
       </c>
@@ -29195,7 +29383,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>2018</v>
       </c>
@@ -29242,7 +29430,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>2018</v>
       </c>
@@ -29289,7 +29477,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>2018</v>
       </c>
@@ -29336,7 +29524,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>2018</v>
       </c>
@@ -29383,7 +29571,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>2018</v>
       </c>
@@ -29430,7 +29618,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>2018</v>
       </c>
@@ -29477,7 +29665,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>2018</v>
       </c>
@@ -29524,7 +29712,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>2018</v>
       </c>
@@ -29571,7 +29759,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>2018</v>
       </c>
@@ -29618,7 +29806,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>2018</v>
       </c>
@@ -29665,7 +29853,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>2018</v>
       </c>
@@ -29712,7 +29900,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>2018</v>
       </c>
@@ -29759,7 +29947,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>2018</v>
       </c>
@@ -29806,7 +29994,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>2018</v>
       </c>
@@ -29853,7 +30041,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>2018</v>
       </c>
@@ -29900,7 +30088,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>2018</v>
       </c>
@@ -29947,7 +30135,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>2018</v>
       </c>
@@ -29994,7 +30182,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>2018</v>
       </c>
@@ -30041,7 +30229,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>2018</v>
       </c>
@@ -30088,7 +30276,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>2019</v>
       </c>
@@ -30135,7 +30323,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>2019</v>
       </c>
@@ -30182,7 +30370,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>2019</v>
       </c>
@@ -30229,7 +30417,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>2019</v>
       </c>
@@ -30276,7 +30464,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>2019</v>
       </c>
@@ -30323,7 +30511,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>2019</v>
       </c>
@@ -30370,7 +30558,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>2019</v>
       </c>
@@ -30417,7 +30605,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>2019</v>
       </c>
@@ -30464,7 +30652,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>2019</v>
       </c>
@@ -30511,7 +30699,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>2019</v>
       </c>
@@ -30558,7 +30746,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>2019</v>
       </c>
@@ -30605,7 +30793,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>2019</v>
       </c>
@@ -30652,7 +30840,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>2019</v>
       </c>
@@ -30699,7 +30887,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>2019</v>
       </c>
@@ -30746,7 +30934,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>2019</v>
       </c>
@@ -30793,7 +30981,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>2019</v>
       </c>
@@ -30840,7 +31028,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>2019</v>
       </c>
@@ -30887,7 +31075,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>2019</v>
       </c>
@@ -30934,7 +31122,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>2019</v>
       </c>
@@ -30981,7 +31169,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>2019</v>
       </c>
@@ -31028,7 +31216,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>2019</v>
       </c>
@@ -31075,7 +31263,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>2019</v>
       </c>
@@ -31122,7 +31310,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>2020</v>
       </c>
@@ -31169,7 +31357,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>2020</v>
       </c>
@@ -31216,7 +31404,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>2020</v>
       </c>
@@ -31263,7 +31451,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>2020</v>
       </c>
@@ -31310,7 +31498,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>2020</v>
       </c>
@@ -31357,7 +31545,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>2020</v>
       </c>
@@ -31404,7 +31592,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>2020</v>
       </c>
@@ -31451,7 +31639,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>2020</v>
       </c>
@@ -31498,7 +31686,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>2020</v>
       </c>
@@ -31545,7 +31733,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>2020</v>
       </c>
@@ -31592,7 +31780,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>2020</v>
       </c>
@@ -31639,7 +31827,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>2020</v>
       </c>
@@ -31686,7 +31874,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>2020</v>
       </c>
@@ -31733,7 +31921,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>2020</v>
       </c>
@@ -31780,7 +31968,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>2020</v>
       </c>
@@ -31827,7 +32015,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>2020</v>
       </c>
@@ -31874,7 +32062,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>2020</v>
       </c>
@@ -31921,7 +32109,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>2020</v>
       </c>
@@ -31968,7 +32156,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>2020</v>
       </c>
@@ -32015,7 +32203,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>2021</v>
       </c>
@@ -32062,7 +32250,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>2021</v>
       </c>
@@ -32109,7 +32297,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>2021</v>
       </c>
@@ -32156,7 +32344,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>2021</v>
       </c>
@@ -32203,7 +32391,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>2021</v>
       </c>
@@ -32250,7 +32438,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>2021</v>
       </c>
@@ -32297,7 +32485,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>2021</v>
       </c>
@@ -32344,7 +32532,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>2021</v>
       </c>
@@ -32391,7 +32579,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>2021</v>
       </c>
@@ -32438,7 +32626,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>2021</v>
       </c>
@@ -32485,7 +32673,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>2021</v>
       </c>
@@ -32532,7 +32720,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>2021</v>
       </c>
@@ -32579,7 +32767,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>2021</v>
       </c>
@@ -32626,7 +32814,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>2021</v>
       </c>
@@ -32673,7 +32861,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>2021</v>
       </c>
@@ -32720,7 +32908,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>2021</v>
       </c>
@@ -32767,7 +32955,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>2021</v>
       </c>
@@ -32814,7 +33002,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>2021</v>
       </c>
@@ -32861,7 +33049,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>2021</v>
       </c>
@@ -32908,7 +33096,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>2021</v>
       </c>
@@ -32955,7 +33143,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>2021</v>
       </c>
@@ -33002,7 +33190,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>2021</v>
       </c>
@@ -33049,7 +33237,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>2021</v>
       </c>
@@ -33096,7 +33284,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>2021</v>
       </c>
@@ -33143,7 +33331,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>2021</v>
       </c>
@@ -33190,7 +33378,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>2021</v>
       </c>
@@ -33237,7 +33425,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>2021</v>
       </c>
@@ -33284,7 +33472,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>2021</v>
       </c>
@@ -33331,7 +33519,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>2021</v>
       </c>
@@ -33378,7 +33566,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>2021</v>
       </c>
@@ -33425,7 +33613,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>2021</v>
       </c>
@@ -33472,7 +33660,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>2021</v>
       </c>
@@ -33519,7 +33707,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>2021</v>
       </c>
@@ -33566,7 +33754,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>2021</v>
       </c>
@@ -33613,7 +33801,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>2021</v>
       </c>
@@ -33660,7 +33848,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>2021</v>
       </c>
@@ -33707,7 +33895,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>2022</v>
       </c>
@@ -33754,7 +33942,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>2022</v>
       </c>
@@ -33801,7 +33989,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>2022</v>
       </c>
@@ -33848,7 +34036,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>2022</v>
       </c>
@@ -33895,7 +34083,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>2022</v>
       </c>
@@ -33942,7 +34130,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>2022</v>
       </c>
@@ -33989,7 +34177,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>2022</v>
       </c>
@@ -34036,7 +34224,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>2022</v>
       </c>
@@ -34083,7 +34271,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="609" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>2022</v>
       </c>
@@ -34130,7 +34318,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="610" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>2022</v>
       </c>
@@ -34177,7 +34365,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="611" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>2022</v>
       </c>
@@ -34224,7 +34412,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="612" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>2022</v>
       </c>
@@ -34271,7 +34459,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="613" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>2022</v>
       </c>
@@ -34318,7 +34506,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="614" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>2022</v>
       </c>
@@ -34365,7 +34553,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="615" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>2022</v>
       </c>
@@ -34412,7 +34600,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="616" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>2022</v>
       </c>
@@ -34459,7 +34647,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="617" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>2022</v>
       </c>
@@ -34506,7 +34694,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="618" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>2022</v>
       </c>
@@ -34553,7 +34741,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="619" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>2022</v>
       </c>
@@ -34600,7 +34788,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="620" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>2022</v>
       </c>
@@ -34647,7 +34835,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="621" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>2022</v>
       </c>
@@ -34694,7 +34882,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="622" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>2022</v>
       </c>
@@ -34741,7 +34929,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="623" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>2022</v>
       </c>
@@ -34788,7 +34976,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="624" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>2022</v>
       </c>
@@ -34835,7 +35023,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>2022</v>
       </c>
@@ -34882,7 +35070,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>2022</v>
       </c>
@@ -34929,7 +35117,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>2022</v>
       </c>
@@ -34976,7 +35164,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>2022</v>
       </c>
@@ -35023,7 +35211,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>2022</v>
       </c>
@@ -35070,7 +35258,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>2022</v>
       </c>
@@ -35117,7 +35305,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>2022</v>
       </c>
@@ -35164,7 +35352,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>2022</v>
       </c>
@@ -35211,7 +35399,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="633" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>2022</v>
       </c>
@@ -35258,7 +35446,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="634" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>2022</v>
       </c>
@@ -35305,7 +35493,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="635" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>2022</v>
       </c>
@@ -35352,7 +35540,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="636" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>2022</v>
       </c>
@@ -35399,7 +35587,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="637" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>2022</v>
       </c>
@@ -35446,7 +35634,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="638" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>2022</v>
       </c>
@@ -35493,7 +35681,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="639" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>2022</v>
       </c>
@@ -35540,7 +35728,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="640" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>2022</v>
       </c>
@@ -35587,7 +35775,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="641" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>2022</v>
       </c>
@@ -35634,7 +35822,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="642" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>2022</v>
       </c>
@@ -35681,7 +35869,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="643" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>2022</v>
       </c>
@@ -35728,7 +35916,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="644" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>2022</v>
       </c>
@@ -35775,7 +35963,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="645" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>2022</v>
       </c>
@@ -35822,7 +36010,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="646" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>2022</v>
       </c>
@@ -35869,7 +36057,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="647" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>2022</v>
       </c>
@@ -35916,7 +36104,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="648" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>2022</v>
       </c>
@@ -35963,7 +36151,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="649" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>2022</v>
       </c>
@@ -36010,7 +36198,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="650" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>2022</v>
       </c>
@@ -36057,7 +36245,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="651" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>2022</v>
       </c>
@@ -36104,7 +36292,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="652" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>2022</v>
       </c>
@@ -36151,7 +36339,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="653" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>2022</v>
       </c>
@@ -36198,7 +36386,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="654" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>2022</v>
       </c>
@@ -36245,7 +36433,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="655" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>2022</v>
       </c>
@@ -36292,7 +36480,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="656" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>2022</v>
       </c>
@@ -36339,7 +36527,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="657" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>2022</v>
       </c>
@@ -36386,7 +36574,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="658" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>2022</v>
       </c>
@@ -36433,7 +36621,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="659" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>2022</v>
       </c>
@@ -36480,7 +36668,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="660" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>2022</v>
       </c>
@@ -36528,6 +36716,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="G1:G660" xr:uid="{E5D9636F-EAD1-4DF2-A536-0DC762862177}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="O8" r:id="rId1" xr:uid="{D128918C-30A7-4644-8915-6E1BF836B108}"/>
@@ -36597,1036 +36786,119 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC2B57D-B276-4F49-BA52-7BBD9A67C9B9}">
-  <dimension ref="A1:D64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8B6DD3-D17E-46BB-8A78-8AF8C223F2B2}">
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1957</v>
-      </c>
-      <c r="B2">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1957")</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G2)</f>
-        <v>2.7627314814814819E-3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1960</v>
-      </c>
-      <c r="B3">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1960")</f>
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G3:G4)</f>
-        <v>2.7581018518518519E-3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1962</v>
-      </c>
-      <c r="B4">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1962")</f>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B2" s="7">
+        <f>AVERAGE('US Sub-4 Milers'!G2:G660)</f>
+        <v>2.7625119428988936E-3</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B3" s="7">
+        <f>MEDIAN('US Sub-4 Milers'!G2:G660)</f>
+        <v>2.7662037037037034E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B4" s="7">
+        <f>MIN('US Sub-4 Milers'!G2:G660)</f>
+        <v>2.6484953703703705E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B5" s="7">
+        <f>MAX('US Sub-4 Milers'!G2:G660)</f>
+        <v>2.7770833333333332E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B9" s="7">
+        <f>B5-B4</f>
+        <v>1.2858796296296273E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B11" s="8">
+        <f>COUNTIF('US Sub-4 Milers'!G:G, "&lt;03:58.7")</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B12" s="8">
+        <f>COUNTIF('US Sub-4 Milers'!G:G, "=03:58.7")</f>
         <v>5</v>
       </c>
-      <c r="C4" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G5:G9)</f>
-        <v>2.7652083333333331E-3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>1963</v>
-      </c>
-      <c r="B5">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1963")</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G10)</f>
-        <v>2.7685185185185187E-3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>1964</v>
-      </c>
-      <c r="B6">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1964")</f>
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G11:G15)</f>
-        <v>2.7604166666666667E-3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>1965</v>
-      </c>
-      <c r="B7">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1965")</f>
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G16)</f>
-        <v>2.7557870370370371E-3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>1966</v>
-      </c>
-      <c r="B8">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1966")</f>
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G17:G21)</f>
-        <v>2.7696759259259259E-3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>1967</v>
-      </c>
-      <c r="B9">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1967")</f>
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G22:G26)</f>
-        <v>2.756712962962963E-3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>1968</v>
-      </c>
-      <c r="B10">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1968")</f>
-        <v>4</v>
-      </c>
-      <c r="C10" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G27:G30)</f>
-        <v>2.7618634259259259E-3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>1969</v>
-      </c>
-      <c r="B11">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1969")</f>
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G31:G32)</f>
-        <v>2.7656250000000003E-3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>1970</v>
-      </c>
-      <c r="B12">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1970")</f>
-        <v>8</v>
-      </c>
-      <c r="C12" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G33:G40)</f>
-        <v>2.7653356481481483E-3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>1971</v>
-      </c>
-      <c r="B13">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1971")</f>
-        <v>7</v>
-      </c>
-      <c r="C13" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G41:G47)</f>
-        <v>2.7713293650793651E-3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>1972</v>
-      </c>
-      <c r="B14">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1972")</f>
-        <v>4</v>
-      </c>
-      <c r="C14" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G48:G51)</f>
-        <v>2.7690972222222223E-3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>1973</v>
-      </c>
-      <c r="B15">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1973")</f>
-        <v>12</v>
-      </c>
-      <c r="C15" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G52:G63)</f>
-        <v>2.7635995370370371E-3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>1974</v>
-      </c>
-      <c r="B16">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1974")</f>
-        <v>11</v>
-      </c>
-      <c r="C16" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G64:G74)</f>
-        <v>2.759890572390573E-3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>1975</v>
-      </c>
-      <c r="B17">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1975")</f>
-        <v>7</v>
-      </c>
-      <c r="C17" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G75:G81)</f>
-        <v>2.7619047619047614E-3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>1976</v>
-      </c>
-      <c r="B18">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1976")</f>
-        <v>2</v>
-      </c>
-      <c r="C18" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G82:G83)</f>
-        <v>2.7702546296296295E-3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>1977</v>
-      </c>
-      <c r="B19">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1977")</f>
-        <v>4</v>
-      </c>
-      <c r="C19" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G84:G87)</f>
-        <v>2.7648726851851849E-3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>1978</v>
-      </c>
-      <c r="B20">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1978")</f>
-        <v>9</v>
-      </c>
-      <c r="C20" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G88:G96)</f>
-        <v>2.7649948559670778E-3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>1979</v>
-      </c>
-      <c r="B21">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1979")</f>
-        <v>4</v>
-      </c>
-      <c r="C21" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G97:G100)</f>
-        <v>2.7609664351851853E-3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>1980</v>
-      </c>
-      <c r="B22">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1980")</f>
-        <v>8</v>
-      </c>
-      <c r="C22" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G101:G108)</f>
-        <v>2.7611111111111109E-3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>1981</v>
-      </c>
-      <c r="B23">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1981")</f>
-        <v>9</v>
-      </c>
-      <c r="C23" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G109:G117)</f>
-        <v>2.7399305555555558E-3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>1982</v>
-      </c>
-      <c r="B24">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1982")</f>
-        <v>9</v>
-      </c>
-      <c r="C24" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G118:G126)</f>
-        <v>2.7569444444444447E-3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>1983</v>
-      </c>
-      <c r="B25">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1983")</f>
-        <v>8</v>
-      </c>
-      <c r="C25" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G127:G134)</f>
-        <v>2.7614004629629625E-3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>1984</v>
-      </c>
-      <c r="B26">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1984")</f>
-        <v>4</v>
-      </c>
-      <c r="C26" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G135:G138)</f>
-        <v>2.7603877314814813E-3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>1985</v>
-      </c>
-      <c r="B27">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1985")</f>
-        <v>5</v>
-      </c>
-      <c r="C27" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G139:G143)</f>
-        <v>2.7675231481481483E-3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>1986</v>
-      </c>
-      <c r="B28">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1986")</f>
-        <v>6</v>
-      </c>
-      <c r="C28" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G144:G149)</f>
-        <v>2.7684413580246919E-3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>1987</v>
-      </c>
-      <c r="B29">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1987")</f>
-        <v>5</v>
-      </c>
-      <c r="C29" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G150:G154)</f>
-        <v>2.7656249999999999E-3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>1988</v>
-      </c>
-      <c r="B30">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1988")</f>
-        <v>8</v>
-      </c>
-      <c r="C30" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G155:G162)</f>
-        <v>2.7584924768518518E-3</v>
-      </c>
-      <c r="D30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>1989</v>
-      </c>
-      <c r="B31">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1989")</f>
-        <v>7</v>
-      </c>
-      <c r="C31" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G163:G169)</f>
-        <v>2.7692294973544981E-3</v>
-      </c>
-      <c r="D31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>1990</v>
-      </c>
-      <c r="B32">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1990")</f>
-        <v>3</v>
-      </c>
-      <c r="C32" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G170:G172)</f>
-        <v>2.7702160493827161E-3</v>
-      </c>
-      <c r="D32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>1991</v>
-      </c>
-      <c r="B33">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1991")</f>
-        <v>12</v>
-      </c>
-      <c r="C33" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G173:G184)</f>
-        <v>2.7594714506172843E-3</v>
-      </c>
-      <c r="D33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>1992</v>
-      </c>
-      <c r="B34">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1992")</f>
-        <v>4</v>
-      </c>
-      <c r="C34" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G185:G188)</f>
-        <v>2.7524305555555553E-3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>1993</v>
-      </c>
-      <c r="B35">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1993")</f>
-        <v>7</v>
-      </c>
-      <c r="C35" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G189:G195)</f>
-        <v>2.7632275132275135E-3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>1994</v>
-      </c>
-      <c r="B36">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1994")</f>
-        <v>9</v>
-      </c>
-      <c r="C36" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G196:G204)</f>
-        <v>2.7645961934156375E-3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>1995</v>
-      </c>
-      <c r="B37">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1995")</f>
-        <v>6</v>
-      </c>
-      <c r="C37" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G205:G210)</f>
-        <v>2.760011574074074E-3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>1996</v>
-      </c>
-      <c r="B38">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1996")</f>
-        <v>2</v>
-      </c>
-      <c r="C38" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G211:G212)</f>
-        <v>2.7662037037037039E-3</v>
-      </c>
-      <c r="D38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>1997</v>
-      </c>
-      <c r="B39">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1997")</f>
-        <v>8</v>
-      </c>
-      <c r="C39" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G213:G220)</f>
-        <v>2.7585214120370368E-3</v>
-      </c>
-      <c r="D39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>1998</v>
-      </c>
-      <c r="B40">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1998")</f>
-        <v>8</v>
-      </c>
-      <c r="C40" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G221:G228)</f>
-        <v>2.7706163194444445E-3</v>
-      </c>
-      <c r="D40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>1999</v>
-      </c>
-      <c r="B41">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "1999")</f>
-        <v>4</v>
-      </c>
-      <c r="C41" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G229:G232)</f>
-        <v>2.7553530092592595E-3</v>
-      </c>
-      <c r="D41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>2000</v>
-      </c>
-      <c r="B42">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "2000")</f>
-        <v>6</v>
-      </c>
-      <c r="C42" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G233:G238)</f>
-        <v>2.7691358024691357E-3</v>
-      </c>
-      <c r="D42" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>2001</v>
-      </c>
-      <c r="B43">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "2001")</f>
-        <v>8</v>
-      </c>
-      <c r="C43" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G239:G246)</f>
-        <v>2.767462384259259E-3</v>
-      </c>
-      <c r="D43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>2002</v>
-      </c>
-      <c r="B44">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "2002")</f>
-        <v>7</v>
-      </c>
-      <c r="C44" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G247:G253)</f>
-        <v>2.7695601851851848E-3</v>
-      </c>
-      <c r="D44" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>2003</v>
-      </c>
-      <c r="B45">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "2003")</f>
-        <v>5</v>
-      </c>
-      <c r="C45" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G254:G258)</f>
-        <v>2.7628703703703708E-3</v>
-      </c>
-      <c r="D45" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>2004</v>
-      </c>
-      <c r="B46">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "2004")</f>
-        <v>7</v>
-      </c>
-      <c r="C46" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G259:G265)</f>
-        <v>2.7656415343915342E-3</v>
-      </c>
-      <c r="D46" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>2005</v>
-      </c>
-      <c r="B47">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "2005")</f>
-        <v>8</v>
-      </c>
-      <c r="C47" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G266:G273)</f>
-        <v>2.7516637731481476E-3</v>
-      </c>
-      <c r="D47" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>2006</v>
-      </c>
-      <c r="B48">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "2006")</f>
-        <v>12</v>
-      </c>
-      <c r="C48" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G274:G285)</f>
-        <v>2.7652006172839507E-3</v>
-      </c>
-      <c r="D48" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>2007</v>
-      </c>
-      <c r="B49">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "2007")</f>
-        <v>13</v>
-      </c>
-      <c r="C49" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G286:G298)</f>
-        <v>2.7620281339031339E-3</v>
-      </c>
-      <c r="D49" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>2008</v>
-      </c>
-      <c r="B50">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "2008")</f>
-        <v>15</v>
-      </c>
-      <c r="C50" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G299:G313)</f>
-        <v>2.7637422839506174E-3</v>
-      </c>
-      <c r="D50" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>2009</v>
-      </c>
-      <c r="B51">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "2009")</f>
-        <v>17</v>
-      </c>
-      <c r="C51" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G314:G330)</f>
-        <v>2.7568218954248367E-3</v>
-      </c>
-      <c r="D51" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>2010</v>
-      </c>
-      <c r="B52">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "2010")</f>
-        <v>20</v>
-      </c>
-      <c r="C52" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G331:G350)</f>
-        <v>2.7666087962962965E-3</v>
-      </c>
-      <c r="D52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>2011</v>
-      </c>
-      <c r="B53">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "2011")</f>
-        <v>12</v>
-      </c>
-      <c r="C53" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G351:G362)</f>
-        <v>2.7589216820987656E-3</v>
-      </c>
-      <c r="D53" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>2012</v>
-      </c>
-      <c r="B54">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "2012")</f>
-        <v>23</v>
-      </c>
-      <c r="C54" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G363:G385)</f>
-        <v>2.7658514492753632E-3</v>
-      </c>
-      <c r="D54" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>2013</v>
-      </c>
-      <c r="B55">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "2013")</f>
-        <v>23</v>
-      </c>
-      <c r="C55" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G386:G408)</f>
-        <v>2.7647141706924313E-3</v>
-      </c>
-      <c r="D55" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>2014</v>
-      </c>
-      <c r="B56">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "2014")</f>
-        <v>18</v>
-      </c>
-      <c r="C56" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G409:G426)</f>
-        <v>2.7619984567901238E-3</v>
-      </c>
-      <c r="D56" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>2015</v>
-      </c>
-      <c r="B57">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "2015")</f>
-        <v>24</v>
-      </c>
-      <c r="C57" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G427:G450)</f>
-        <v>2.7656925154320986E-3</v>
-      </c>
-      <c r="D57" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>2016</v>
-      </c>
-      <c r="B58">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "2016")</f>
-        <v>27</v>
-      </c>
-      <c r="C58" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G451:G477)</f>
-        <v>2.7622899519890256E-3</v>
-      </c>
-      <c r="D58" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>2017</v>
-      </c>
-      <c r="B59">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "2017")</f>
-        <v>17</v>
-      </c>
-      <c r="C59" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G478:G494)</f>
-        <v>2.7646241830065355E-3</v>
-      </c>
-      <c r="D59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>2018</v>
-      </c>
-      <c r="B60">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "2018")</f>
-        <v>29</v>
-      </c>
-      <c r="C60" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G495:G523)</f>
-        <v>2.7636454342273306E-3</v>
-      </c>
-      <c r="D60" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>2019</v>
-      </c>
-      <c r="B61">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "2019")</f>
-        <v>22</v>
-      </c>
-      <c r="C61" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G524:G545)</f>
-        <v>2.7666561447811447E-3</v>
-      </c>
-      <c r="D61" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>2020</v>
-      </c>
-      <c r="B62">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "2020")</f>
-        <v>19</v>
-      </c>
-      <c r="C62" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G546:G564)</f>
-        <v>2.7648574561403515E-3</v>
-      </c>
-      <c r="D62" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>2021</v>
-      </c>
-      <c r="B63">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "2021")</f>
-        <v>36</v>
-      </c>
-      <c r="C63" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G565:G600)</f>
-        <v>2.7602752057613168E-3</v>
-      </c>
-      <c r="D63" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>2022</v>
-      </c>
-      <c r="B64">
-        <f>COUNTIF('US Sub-4 Milers'!A:A, "2022")</f>
-        <v>60</v>
-      </c>
-      <c r="C64" s="2">
-        <f>AVERAGE('US Sub-4 Milers'!G601:G660)</f>
-        <v>2.7579398148148155E-3</v>
-      </c>
-      <c r="D64" t="s">
-        <v>120</v>
-      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B13" s="8">
+        <f>COUNTIF('US Sub-4 Milers'!G:G, "&gt;03:58.7")</f>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B18" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37634,6 +36906,1043 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC2B57D-B276-4F49-BA52-7BBD9A67C9B9}">
+  <dimension ref="A1:D64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1957</v>
+      </c>
+      <c r="B2">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1957")</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G2)</f>
+        <v>2.7627314814814819E-3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1960</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1960")</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G3:G4)</f>
+        <v>2.7581018518518519E-3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1962</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1962")</f>
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G5:G9)</f>
+        <v>2.7652083333333331E-3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1963</v>
+      </c>
+      <c r="B5">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1963")</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G10)</f>
+        <v>2.7685185185185187E-3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1964</v>
+      </c>
+      <c r="B6">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1964")</f>
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G11:G15)</f>
+        <v>2.7604166666666667E-3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1965</v>
+      </c>
+      <c r="B7">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1965")</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G16)</f>
+        <v>2.7557870370370371E-3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1966</v>
+      </c>
+      <c r="B8">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1966")</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G17:G21)</f>
+        <v>2.7696759259259259E-3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1967</v>
+      </c>
+      <c r="B9">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1967")</f>
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G22:G26)</f>
+        <v>2.756712962962963E-3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1968</v>
+      </c>
+      <c r="B10">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1968")</f>
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G27:G30)</f>
+        <v>2.7618634259259259E-3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1969</v>
+      </c>
+      <c r="B11">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1969")</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G31:G32)</f>
+        <v>2.7656250000000003E-3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1970</v>
+      </c>
+      <c r="B12">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1970")</f>
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G33:G40)</f>
+        <v>2.7653356481481483E-3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1971</v>
+      </c>
+      <c r="B13">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1971")</f>
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G41:G47)</f>
+        <v>2.7713293650793651E-3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1972</v>
+      </c>
+      <c r="B14">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1972")</f>
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G48:G51)</f>
+        <v>2.7690972222222223E-3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1973</v>
+      </c>
+      <c r="B15">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1973")</f>
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G52:G63)</f>
+        <v>2.7635995370370371E-3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1974</v>
+      </c>
+      <c r="B16">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1974")</f>
+        <v>11</v>
+      </c>
+      <c r="C16" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G64:G74)</f>
+        <v>2.759890572390573E-3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1975</v>
+      </c>
+      <c r="B17">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1975")</f>
+        <v>7</v>
+      </c>
+      <c r="C17" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G75:G81)</f>
+        <v>2.7619047619047614E-3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1976</v>
+      </c>
+      <c r="B18">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1976")</f>
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G82:G83)</f>
+        <v>2.7702546296296295E-3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1977</v>
+      </c>
+      <c r="B19">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1977")</f>
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G84:G87)</f>
+        <v>2.7648726851851849E-3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1978</v>
+      </c>
+      <c r="B20">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1978")</f>
+        <v>9</v>
+      </c>
+      <c r="C20" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G88:G96)</f>
+        <v>2.7649948559670778E-3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1979</v>
+      </c>
+      <c r="B21">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1979")</f>
+        <v>4</v>
+      </c>
+      <c r="C21" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G97:G100)</f>
+        <v>2.7609664351851853E-3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1980</v>
+      </c>
+      <c r="B22">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1980")</f>
+        <v>8</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G101:G108)</f>
+        <v>2.7611111111111109E-3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1981</v>
+      </c>
+      <c r="B23">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1981")</f>
+        <v>9</v>
+      </c>
+      <c r="C23" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G109:G117)</f>
+        <v>2.7399305555555558E-3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1982</v>
+      </c>
+      <c r="B24">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1982")</f>
+        <v>9</v>
+      </c>
+      <c r="C24" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G118:G126)</f>
+        <v>2.7569444444444447E-3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1983</v>
+      </c>
+      <c r="B25">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1983")</f>
+        <v>8</v>
+      </c>
+      <c r="C25" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G127:G134)</f>
+        <v>2.7614004629629625E-3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1984</v>
+      </c>
+      <c r="B26">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1984")</f>
+        <v>4</v>
+      </c>
+      <c r="C26" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G135:G138)</f>
+        <v>2.7603877314814813E-3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1985</v>
+      </c>
+      <c r="B27">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1985")</f>
+        <v>5</v>
+      </c>
+      <c r="C27" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G139:G143)</f>
+        <v>2.7675231481481483E-3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1986</v>
+      </c>
+      <c r="B28">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1986")</f>
+        <v>6</v>
+      </c>
+      <c r="C28" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G144:G149)</f>
+        <v>2.7684413580246919E-3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1987</v>
+      </c>
+      <c r="B29">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1987")</f>
+        <v>5</v>
+      </c>
+      <c r="C29" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G150:G154)</f>
+        <v>2.7656249999999999E-3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1988</v>
+      </c>
+      <c r="B30">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1988")</f>
+        <v>8</v>
+      </c>
+      <c r="C30" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G155:G162)</f>
+        <v>2.7584924768518518E-3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1989</v>
+      </c>
+      <c r="B31">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1989")</f>
+        <v>7</v>
+      </c>
+      <c r="C31" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G163:G169)</f>
+        <v>2.7692294973544981E-3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1990</v>
+      </c>
+      <c r="B32">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1990")</f>
+        <v>3</v>
+      </c>
+      <c r="C32" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G170:G172)</f>
+        <v>2.7702160493827161E-3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1991</v>
+      </c>
+      <c r="B33">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1991")</f>
+        <v>12</v>
+      </c>
+      <c r="C33" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G173:G184)</f>
+        <v>2.7594714506172843E-3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1992</v>
+      </c>
+      <c r="B34">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1992")</f>
+        <v>4</v>
+      </c>
+      <c r="C34" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G185:G188)</f>
+        <v>2.7524305555555553E-3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1993</v>
+      </c>
+      <c r="B35">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1993")</f>
+        <v>7</v>
+      </c>
+      <c r="C35" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G189:G195)</f>
+        <v>2.7632275132275135E-3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1994</v>
+      </c>
+      <c r="B36">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1994")</f>
+        <v>9</v>
+      </c>
+      <c r="C36" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G196:G204)</f>
+        <v>2.7645961934156375E-3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1995</v>
+      </c>
+      <c r="B37">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1995")</f>
+        <v>6</v>
+      </c>
+      <c r="C37" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G205:G210)</f>
+        <v>2.760011574074074E-3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1996</v>
+      </c>
+      <c r="B38">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1996")</f>
+        <v>2</v>
+      </c>
+      <c r="C38" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G211:G212)</f>
+        <v>2.7662037037037039E-3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1997</v>
+      </c>
+      <c r="B39">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1997")</f>
+        <v>8</v>
+      </c>
+      <c r="C39" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G213:G220)</f>
+        <v>2.7585214120370368E-3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1998</v>
+      </c>
+      <c r="B40">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1998")</f>
+        <v>8</v>
+      </c>
+      <c r="C40" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G221:G228)</f>
+        <v>2.7706163194444445E-3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1999</v>
+      </c>
+      <c r="B41">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "1999")</f>
+        <v>4</v>
+      </c>
+      <c r="C41" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G229:G232)</f>
+        <v>2.7553530092592595E-3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2000</v>
+      </c>
+      <c r="B42">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "2000")</f>
+        <v>6</v>
+      </c>
+      <c r="C42" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G233:G238)</f>
+        <v>2.7691358024691357E-3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2001</v>
+      </c>
+      <c r="B43">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "2001")</f>
+        <v>8</v>
+      </c>
+      <c r="C43" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G239:G246)</f>
+        <v>2.7673321759259257E-3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2002</v>
+      </c>
+      <c r="B44">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "2002")</f>
+        <v>7</v>
+      </c>
+      <c r="C44" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G247:G253)</f>
+        <v>2.7695601851851848E-3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2003</v>
+      </c>
+      <c r="B45">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "2003")</f>
+        <v>5</v>
+      </c>
+      <c r="C45" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G254:G258)</f>
+        <v>2.7628703703703708E-3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2004</v>
+      </c>
+      <c r="B46">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "2004")</f>
+        <v>7</v>
+      </c>
+      <c r="C46" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G259:G265)</f>
+        <v>2.7654927248677249E-3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2005</v>
+      </c>
+      <c r="B47">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "2005")</f>
+        <v>8</v>
+      </c>
+      <c r="C47" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G266:G273)</f>
+        <v>2.7516637731481476E-3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2006</v>
+      </c>
+      <c r="B48">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "2006")</f>
+        <v>12</v>
+      </c>
+      <c r="C48" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G274:G285)</f>
+        <v>2.7652006172839507E-3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2007</v>
+      </c>
+      <c r="B49">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "2007")</f>
+        <v>13</v>
+      </c>
+      <c r="C49" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G286:G298)</f>
+        <v>2.7620281339031339E-3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2008</v>
+      </c>
+      <c r="B50">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "2008")</f>
+        <v>15</v>
+      </c>
+      <c r="C50" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G299:G313)</f>
+        <v>2.7637422839506174E-3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2009</v>
+      </c>
+      <c r="B51">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "2009")</f>
+        <v>17</v>
+      </c>
+      <c r="C51" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G314:G330)</f>
+        <v>2.7568218954248367E-3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2010</v>
+      </c>
+      <c r="B52">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "2010")</f>
+        <v>20</v>
+      </c>
+      <c r="C52" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G331:G350)</f>
+        <v>2.7666087962962965E-3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2011</v>
+      </c>
+      <c r="B53">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "2011")</f>
+        <v>12</v>
+      </c>
+      <c r="C53" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G351:G362)</f>
+        <v>2.7589216820987656E-3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2012</v>
+      </c>
+      <c r="B54">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "2012")</f>
+        <v>23</v>
+      </c>
+      <c r="C54" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G363:G385)</f>
+        <v>2.7658514492753632E-3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2013</v>
+      </c>
+      <c r="B55">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "2013")</f>
+        <v>23</v>
+      </c>
+      <c r="C55" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G386:G408)</f>
+        <v>2.7647141706924313E-3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2014</v>
+      </c>
+      <c r="B56">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "2014")</f>
+        <v>18</v>
+      </c>
+      <c r="C56" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G409:G426)</f>
+        <v>2.7619984567901238E-3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2015</v>
+      </c>
+      <c r="B57">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "2015")</f>
+        <v>24</v>
+      </c>
+      <c r="C57" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G427:G450)</f>
+        <v>2.7656925154320986E-3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2016</v>
+      </c>
+      <c r="B58">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "2016")</f>
+        <v>27</v>
+      </c>
+      <c r="C58" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G451:G477)</f>
+        <v>2.7622899519890256E-3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2017</v>
+      </c>
+      <c r="B59">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "2017")</f>
+        <v>17</v>
+      </c>
+      <c r="C59" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G478:G494)</f>
+        <v>2.7646241830065355E-3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2018</v>
+      </c>
+      <c r="B60">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "2018")</f>
+        <v>29</v>
+      </c>
+      <c r="C60" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G495:G523)</f>
+        <v>2.7636454342273306E-3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2019</v>
+      </c>
+      <c r="B61">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "2019")</f>
+        <v>22</v>
+      </c>
+      <c r="C61" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G524:G545)</f>
+        <v>2.7666561447811447E-3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2020</v>
+      </c>
+      <c r="B62">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "2020")</f>
+        <v>19</v>
+      </c>
+      <c r="C62" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G546:G564)</f>
+        <v>2.7648574561403515E-3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2021</v>
+      </c>
+      <c r="B63">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "2021")</f>
+        <v>36</v>
+      </c>
+      <c r="C63" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G565:G600)</f>
+        <v>2.7602752057613168E-3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2022</v>
+      </c>
+      <c r="B64">
+        <f>COUNTIF('US Sub-4 Milers'!A:A, "2022")</f>
+        <v>60</v>
+      </c>
+      <c r="C64" s="2">
+        <f>AVERAGE('US Sub-4 Milers'!G601:G660)</f>
+        <v>2.7579398148148155E-3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CD72C3-FD29-42D6-B204-872167580F24}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -37641,9 +37950,9 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -37654,7 +37963,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -37667,7 +37976,7 @@
         <v>2.7627314814814819E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -37680,7 +37989,7 @@
         <v>2.7626427469135792E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -37693,7 +38002,7 @@
         <v>2.7644488698257085E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -37706,7 +38015,7 @@
         <v>2.7597457058507789E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -37719,7 +38028,7 @@
         <v>2.7619837595532037E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -37729,10 +38038,10 @@
       </c>
       <c r="C7" s="2">
         <f>AVERAGE('US Sub-4 Milers'!G233:G330)</f>
-        <v>2.7626476284958426E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.7626263699924414E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -37745,7 +38054,7 @@
         <v>2.7643136304909572E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -37763,7 +38072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C59CE3C-4020-418F-8C7D-E75F12C715CE}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -37771,9 +38080,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -37781,7 +38090,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -37790,7 +38099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -37799,7 +38108,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -37808,7 +38117,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -37817,7 +38126,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -37826,7 +38135,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -37835,7 +38144,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -37844,13 +38153,922 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>120</v>
       </c>
       <c r="B9">
         <f>AVERAGE('Sub-4 By Year'!B62:B64)</f>
         <v>38.333333333333336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E39F90-A8EC-480A-B778-EE85CEA603AD}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2.7638888888888886E-3</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2.7638888888888886E-3</v>
+      </c>
+      <c r="D2" s="7">
+        <f>B2-C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2.7766203703703703E-3</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2.7586805555555559E-3</v>
+      </c>
+      <c r="D3" s="7">
+        <f>B3-C3</f>
+        <v>1.7939814814814381E-5</v>
+      </c>
+      <c r="E3" s="11">
+        <v>39543</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2.7685185185185187E-3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2.7192129629629632E-3</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:D13" si="0">B4-C4</f>
+        <v>4.9305555555555474E-5</v>
+      </c>
+      <c r="E4" s="11">
+        <v>27538</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2.753703703703704E-3</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2.6681712962962965E-3</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>8.5532407407407432E-5</v>
+      </c>
+      <c r="E5" s="11">
+        <v>39858</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>947</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2.7627314814814819E-3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2.7395833333333335E-3</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>2.3148148148148442E-5</v>
+      </c>
+      <c r="E6" s="11">
+        <v>24646</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2.7745370370370372E-3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2.7745370370370372E-3</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2.7442129629629626E-3</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2.6775462962962964E-3</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666263E-5</v>
+      </c>
+      <c r="E8" s="11">
+        <v>29736</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2.7484953703703703E-3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2.6608796296296294E-3</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>8.761574074074097E-5</v>
+      </c>
+      <c r="E9" s="11">
+        <v>42049</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2.7563657407407411E-3</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2.7212962962962963E-3</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.5069444444444774E-5</v>
+      </c>
+      <c r="E10" s="11">
+        <v>35561</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2.772337962962963E-3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2.7506944444444445E-3</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>2.1643518518518496E-5</v>
+      </c>
+      <c r="E11" s="11">
+        <v>44226</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2.7280092592592594E-3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2.7221064814814812E-3</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>5.9027777777782842E-6</v>
+      </c>
+      <c r="E12" s="11">
+        <v>32299</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2.7666666666666668E-3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2.7391203703703705E-3</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>2.7546296296296346E-5</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="18" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B19" s="7">
+        <f>AVERAGE(B6:B7)</f>
+        <v>2.7686342592592597E-3</v>
+      </c>
+      <c r="C19" s="7">
+        <f>AVERAGE(C6:C7)</f>
+        <v>2.7570601851851853E-3</v>
+      </c>
+      <c r="D19" s="7">
+        <f>AVERAGE(D6:D7)</f>
+        <v>1.1574074074074221E-5</v>
+      </c>
+      <c r="E19" s="12">
+        <v>15576</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B20" s="7">
+        <f>AVERAGE(B2:B3)</f>
+        <v>2.7702546296296295E-3</v>
+      </c>
+      <c r="C20" s="7">
+        <f>AVERAGE(C2:C3)</f>
+        <v>2.7612847222222223E-3</v>
+      </c>
+      <c r="D20" s="7">
+        <f>AVERAGE(D2:D3)</f>
+        <v>8.9699074074071905E-6</v>
+      </c>
+      <c r="E20" s="12">
+        <v>12746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B21" s="7">
+        <f>AVERAGE(B4:B5)</f>
+        <v>2.7611111111111113E-3</v>
+      </c>
+      <c r="C21" s="7">
+        <f>AVERAGE(C4:C5)</f>
+        <v>2.6936921296296301E-3</v>
+      </c>
+      <c r="D21" s="7">
+        <f>AVERAGE(D4:D5)</f>
+        <v>6.7418981481481453E-5</v>
+      </c>
+      <c r="E21" s="12">
+        <v>12320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B22" s="7">
+        <f>AVERAGE(B10:B11)</f>
+        <v>2.764351851851852E-3</v>
+      </c>
+      <c r="C22" s="7">
+        <f>AVERAGE(C10:C11)</f>
+        <v>2.7359953703703704E-3</v>
+      </c>
+      <c r="D22" s="7">
+        <f>AVERAGE(D10:D11)</f>
+        <v>2.8356481481481635E-5</v>
+      </c>
+      <c r="E22" s="12">
+        <v>8665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B23" s="7">
+        <f>AVERAGE(B8:B9)</f>
+        <v>2.7463541666666665E-3</v>
+      </c>
+      <c r="C23" s="7">
+        <f>AVERAGE(C8:C9)</f>
+        <v>2.6692129629629626E-3</v>
+      </c>
+      <c r="D23" s="7">
+        <f>AVERAGE(D8:D9)</f>
+        <v>7.7141203703703616E-5</v>
+      </c>
+      <c r="E23" s="12">
+        <v>12313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B24" s="7">
+        <f>AVERAGE(B12:B13)</f>
+        <v>2.7473379629629631E-3</v>
+      </c>
+      <c r="C24" s="7">
+        <f>AVERAGE(C12:C13)</f>
+        <v>2.7306134259259258E-3</v>
+      </c>
+      <c r="D24" s="7">
+        <f>AVERAGE(D12:D13)</f>
+        <v>1.6724537037037315E-5</v>
+      </c>
+      <c r="E24" s="12">
+        <v>12079</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="13" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B25" s="14">
+        <f>AVERAGE(B19:B24)</f>
+        <v>2.7596739969135801E-3</v>
+      </c>
+      <c r="C25" s="14">
+        <f>AVERAGE(C19:C24)</f>
+        <v>2.7246431327160501E-3</v>
+      </c>
+      <c r="D25" s="14">
+        <f>AVERAGE(D19:D24)</f>
+        <v>3.5030864197530907E-5</v>
+      </c>
+      <c r="E25" s="15">
+        <f>AVERAGE(E19:E24)</f>
+        <v>12283.166666666666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B390BB9-06BB-467C-AFF4-729369118CE1}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2.7638888888888886E-3</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2.7638888888888886E-3</v>
+      </c>
+      <c r="D2" s="7">
+        <f>B2-C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2.7766203703703703E-3</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2.7586805555555559E-3</v>
+      </c>
+      <c r="D3" s="7">
+        <f>B3-C3</f>
+        <v>1.7939814814814381E-5</v>
+      </c>
+      <c r="E3" s="11">
+        <v>39543</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2.7685185185185187E-3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2.7192129629629632E-3</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:D13" si="0">B4-C4</f>
+        <v>4.9305555555555474E-5</v>
+      </c>
+      <c r="E4" s="11">
+        <v>27538</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2.753703703703704E-3</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2.6681712962962965E-3</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>8.5532407407407432E-5</v>
+      </c>
+      <c r="E5" s="11">
+        <v>39858</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>947</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2.7627314814814819E-3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2.7395833333333335E-3</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>2.3148148148148442E-5</v>
+      </c>
+      <c r="E6" s="11">
+        <v>24646</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2.7745370370370372E-3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2.7745370370370372E-3</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2.7442129629629626E-3</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2.6775462962962964E-3</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666263E-5</v>
+      </c>
+      <c r="E8" s="11">
+        <v>29736</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2.7484953703703703E-3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2.6608796296296294E-3</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>8.761574074074097E-5</v>
+      </c>
+      <c r="E9" s="11">
+        <v>42049</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2.7563657407407411E-3</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2.7212962962962963E-3</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.5069444444444774E-5</v>
+      </c>
+      <c r="E10" s="11">
+        <v>35561</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2.772337962962963E-3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2.7506944444444445E-3</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>2.1643518518518496E-5</v>
+      </c>
+      <c r="E11" s="11">
+        <v>44226</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2.7280092592592594E-3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2.7221064814814812E-3</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>5.9027777777782842E-6</v>
+      </c>
+      <c r="E12" s="11">
+        <v>32299</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2.7666666666666668E-3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2.7391203703703705E-3</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>2.7546296296296346E-5</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D85CE0-4DCE-4B0B-810D-7D0F716F7306}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B2" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!B6:B7)</f>
+        <v>2.7686342592592597E-3</v>
+      </c>
+      <c r="C2" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!C6:C7)</f>
+        <v>2.7570601851851853E-3</v>
+      </c>
+      <c r="D2" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!D6:D7)</f>
+        <v>1.1574074074074221E-5</v>
+      </c>
+      <c r="E2" s="12">
+        <v>15576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B3" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!B2:B3)</f>
+        <v>2.7702546296296295E-3</v>
+      </c>
+      <c r="C3" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!C2:C3)</f>
+        <v>2.7612847222222223E-3</v>
+      </c>
+      <c r="D3" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!D2:D3)</f>
+        <v>8.9699074074071905E-6</v>
+      </c>
+      <c r="E3" s="12">
+        <v>12746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B4" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!B4:B5)</f>
+        <v>2.7611111111111113E-3</v>
+      </c>
+      <c r="C4" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!C4:C5)</f>
+        <v>2.6936921296296301E-3</v>
+      </c>
+      <c r="D4" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!D4:D5)</f>
+        <v>6.7418981481481453E-5</v>
+      </c>
+      <c r="E4" s="12">
+        <v>12320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B5" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!B10:B11)</f>
+        <v>2.764351851851852E-3</v>
+      </c>
+      <c r="C5" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!C10:C11)</f>
+        <v>2.7359953703703704E-3</v>
+      </c>
+      <c r="D5" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!D10:D11)</f>
+        <v>2.8356481481481635E-5</v>
+      </c>
+      <c r="E5" s="12">
+        <v>8665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B6" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!B8:B9)</f>
+        <v>2.7463541666666665E-3</v>
+      </c>
+      <c r="C6" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!C8:C9)</f>
+        <v>2.6692129629629626E-3</v>
+      </c>
+      <c r="D6" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!D8:D9)</f>
+        <v>7.7141203703703616E-5</v>
+      </c>
+      <c r="E6" s="12">
+        <v>12313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B7" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!B12:B13)</f>
+        <v>2.7473379629629631E-3</v>
+      </c>
+      <c r="C7" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!C12:C13)</f>
+        <v>2.7306134259259258E-3</v>
+      </c>
+      <c r="D7" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!D12:D13)</f>
+        <v>1.6724537037037315E-5</v>
+      </c>
+      <c r="E7" s="12">
+        <v>12079</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/US_Sub4_Milers.xlsx
+++ b/spreadsheets/US_Sub4_Milers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ljcoo\NSS\Projects\United_States_Sub_4_Milers_Database\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F954A2-FA2E-4D76-A28B-1A0CE6BEDF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AECAE3D-6C43-4B00-B9E9-ECEDA712E9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="5" activeTab="7" xr2:uid="{FC2F9DD0-DB5D-4A46-B58C-40A2751618EA}"/>
+    <workbookView xWindow="3432" yWindow="1416" windowWidth="17280" windowHeight="10044" firstSheet="2" activeTab="4" xr2:uid="{FC2F9DD0-DB5D-4A46-B58C-40A2751618EA}"/>
   </bookViews>
   <sheets>
     <sheet name="US Sub-4 Milers" sheetId="1" r:id="rId1"/>
@@ -38924,10 +38924,13 @@
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="8.88671875" style="22"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
@@ -38939,7 +38942,7 @@
       <c r="C1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="21" t="s">
         <v>1736</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -38958,7 +38961,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G2)</f>
         <v>2.7627314814814819E-3</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="22">
+        <v>238.7</v>
+      </c>
       <c r="E2" t="s">
         <v>26</v>
       </c>
@@ -38975,7 +38980,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G3:G4)</f>
         <v>2.7581018518518519E-3</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="22">
+        <v>238.3</v>
+      </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
@@ -38992,7 +38999,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G5:G9)</f>
         <v>2.7652083333333331E-3</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="22">
+        <v>238.9</v>
+      </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
@@ -39009,7 +39018,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G10)</f>
         <v>2.7685185185185187E-3</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="22">
+        <v>239.2</v>
+      </c>
       <c r="E5" t="s">
         <v>27</v>
       </c>
@@ -39026,7 +39037,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G11:G15)</f>
         <v>2.7604166666666667E-3</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="22">
+        <v>238.5</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -39043,7 +39056,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G16)</f>
         <v>2.7557870370370371E-3</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="22">
+        <v>238.1</v>
+      </c>
       <c r="E7" t="s">
         <v>27</v>
       </c>
@@ -39060,7 +39075,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G17:G21)</f>
         <v>2.7696759259259259E-3</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="22">
+        <v>239.3</v>
+      </c>
       <c r="E8" t="s">
         <v>27</v>
       </c>
@@ -39077,7 +39094,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G22:G26)</f>
         <v>2.756712962962963E-3</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="22">
+        <v>238.2</v>
+      </c>
       <c r="E9" t="s">
         <v>27</v>
       </c>
@@ -39094,7 +39113,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G27:G30)</f>
         <v>2.7618634259259259E-3</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="22">
+        <v>238.6</v>
+      </c>
       <c r="E10" t="s">
         <v>27</v>
       </c>
@@ -39111,7 +39132,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G31:G32)</f>
         <v>2.7656250000000003E-3</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="22">
+        <v>239</v>
+      </c>
       <c r="E11" t="s">
         <v>27</v>
       </c>
@@ -39128,7 +39151,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G33:G40)</f>
         <v>2.7653356481481483E-3</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="22">
+        <v>238.9</v>
+      </c>
       <c r="E12" t="s">
         <v>115</v>
       </c>
@@ -39145,7 +39170,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G41:G47)</f>
         <v>2.7713293650793651E-3</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="22">
+        <v>239.4</v>
+      </c>
       <c r="E13" t="s">
         <v>115</v>
       </c>
@@ -39162,7 +39189,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G48:G51)</f>
         <v>2.7690972222222223E-3</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="22">
+        <v>239.2</v>
+      </c>
       <c r="E14" t="s">
         <v>115</v>
       </c>
@@ -39179,7 +39208,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G52:G63)</f>
         <v>2.7635995370370371E-3</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="22">
+        <v>238.8</v>
+      </c>
       <c r="E15" t="s">
         <v>115</v>
       </c>
@@ -39196,7 +39227,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G64:G74)</f>
         <v>2.759890572390573E-3</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="22">
+        <v>238.5</v>
+      </c>
       <c r="E16" t="s">
         <v>115</v>
       </c>
@@ -39213,7 +39246,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G75:G81)</f>
         <v>2.7619047619047614E-3</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="22">
+        <v>238.6</v>
+      </c>
       <c r="E17" t="s">
         <v>115</v>
       </c>
@@ -39230,7 +39265,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G82:G83)</f>
         <v>2.7702546296296295E-3</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="22">
+        <v>239.3</v>
+      </c>
       <c r="E18" t="s">
         <v>115</v>
       </c>
@@ -39247,7 +39284,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G84:G87)</f>
         <v>2.7648726851851849E-3</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="22">
+        <v>238.9</v>
+      </c>
       <c r="E19" t="s">
         <v>115</v>
       </c>
@@ -39264,7 +39303,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G88:G96)</f>
         <v>2.7649948559670778E-3</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="22">
+        <v>238.9</v>
+      </c>
       <c r="E20" t="s">
         <v>115</v>
       </c>
@@ -39281,7 +39322,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G97:G100)</f>
         <v>2.7609664351851853E-3</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="22">
+        <v>238.5</v>
+      </c>
       <c r="E21" t="s">
         <v>115</v>
       </c>
@@ -39298,7 +39341,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G101:G108)</f>
         <v>2.7611111111111109E-3</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="22">
+        <v>238.6</v>
+      </c>
       <c r="E22" t="s">
         <v>116</v>
       </c>
@@ -39315,7 +39360,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G109:G117)</f>
         <v>2.7399305555555558E-3</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="22">
+        <v>236.7</v>
+      </c>
       <c r="E23" t="s">
         <v>116</v>
       </c>
@@ -39332,7 +39379,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G118:G126)</f>
         <v>2.7569444444444447E-3</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="22">
+        <v>238.2</v>
+      </c>
       <c r="E24" t="s">
         <v>116</v>
       </c>
@@ -39349,7 +39398,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G127:G134)</f>
         <v>2.7614004629629625E-3</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="22">
+        <v>238.6</v>
+      </c>
       <c r="E25" t="s">
         <v>116</v>
       </c>
@@ -39366,7 +39417,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G135:G138)</f>
         <v>2.7603877314814813E-3</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="22">
+        <v>238.5</v>
+      </c>
       <c r="E26" t="s">
         <v>116</v>
       </c>
@@ -39383,7 +39436,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G139:G143)</f>
         <v>2.7675231481481483E-3</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="22">
+        <v>239.1</v>
+      </c>
       <c r="E27" t="s">
         <v>116</v>
       </c>
@@ -39400,7 +39455,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G144:G149)</f>
         <v>2.7684413580246919E-3</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="22">
+        <v>239.2</v>
+      </c>
       <c r="E28" t="s">
         <v>116</v>
       </c>
@@ -39417,7 +39474,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G150:G154)</f>
         <v>2.7656249999999999E-3</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="22">
+        <v>239</v>
+      </c>
       <c r="E29" t="s">
         <v>116</v>
       </c>
@@ -39434,7 +39493,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G155:G162)</f>
         <v>2.7584924768518518E-3</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="22">
+        <v>238.3</v>
+      </c>
       <c r="E30" t="s">
         <v>116</v>
       </c>
@@ -39451,7 +39512,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G163:G169)</f>
         <v>2.7692294973544981E-3</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="22">
+        <v>239.3</v>
+      </c>
       <c r="E31" t="s">
         <v>116</v>
       </c>
@@ -39468,7 +39531,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G170:G172)</f>
         <v>2.7702160493827161E-3</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="22">
+        <v>239.3</v>
+      </c>
       <c r="E32" t="s">
         <v>117</v>
       </c>
@@ -39485,7 +39550,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G173:G184)</f>
         <v>2.7594714506172843E-3</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="22">
+        <v>238.4</v>
+      </c>
       <c r="E33" t="s">
         <v>117</v>
       </c>
@@ -39502,7 +39569,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G185:G188)</f>
         <v>2.7524305555555553E-3</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="22">
+        <v>237.8</v>
+      </c>
       <c r="E34" t="s">
         <v>117</v>
       </c>
@@ -39519,7 +39588,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G189:G195)</f>
         <v>2.7632275132275135E-3</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="22">
+        <v>238.7</v>
+      </c>
       <c r="E35" t="s">
         <v>117</v>
       </c>
@@ -39536,7 +39607,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G196:G204)</f>
         <v>2.7645961934156375E-3</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="22">
+        <v>238.9</v>
+      </c>
       <c r="E36" t="s">
         <v>117</v>
       </c>
@@ -39553,7 +39626,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G205:G210)</f>
         <v>2.760011574074074E-3</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="22">
+        <v>238.5</v>
+      </c>
       <c r="E37" t="s">
         <v>117</v>
       </c>
@@ -39570,7 +39645,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G211:G212)</f>
         <v>2.7662037037037039E-3</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="22">
+        <v>239</v>
+      </c>
       <c r="E38" t="s">
         <v>117</v>
       </c>
@@ -39587,7 +39664,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G213:G220)</f>
         <v>2.7585214120370368E-3</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="22">
+        <v>238.3</v>
+      </c>
       <c r="E39" t="s">
         <v>117</v>
       </c>
@@ -39604,7 +39683,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G221:G228)</f>
         <v>2.7706163194444445E-3</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="22">
+        <v>239.4</v>
+      </c>
       <c r="E40" t="s">
         <v>117</v>
       </c>
@@ -39621,7 +39702,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G229:G232)</f>
         <v>2.7553530092592595E-3</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="22">
+        <v>238.1</v>
+      </c>
       <c r="E41" t="s">
         <v>117</v>
       </c>
@@ -39638,7 +39721,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G233:G238)</f>
         <v>2.7691358024691357E-3</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="22">
+        <v>239.3</v>
+      </c>
       <c r="E42" t="s">
         <v>118</v>
       </c>
@@ -39655,7 +39740,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G239:G246)</f>
         <v>2.7673321759259257E-3</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="22">
+        <v>239.1</v>
+      </c>
       <c r="E43" t="s">
         <v>118</v>
       </c>
@@ -39672,7 +39759,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G247:G253)</f>
         <v>2.7695601851851848E-3</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="22">
+        <v>239.5</v>
+      </c>
       <c r="E44" t="s">
         <v>118</v>
       </c>
@@ -39689,7 +39778,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G254:G258)</f>
         <v>2.7628703703703708E-3</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="22">
+        <v>238.7</v>
+      </c>
       <c r="E45" t="s">
         <v>118</v>
       </c>
@@ -39706,7 +39797,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G259:G265)</f>
         <v>2.7654927248677249E-3</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="22">
+        <v>238.9</v>
+      </c>
       <c r="E46" t="s">
         <v>118</v>
       </c>
@@ -39723,7 +39816,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G266:G273)</f>
         <v>2.7516637731481476E-3</v>
       </c>
-      <c r="D47" s="2"/>
+      <c r="D47" s="22">
+        <v>237.7</v>
+      </c>
       <c r="E47" t="s">
         <v>118</v>
       </c>
@@ -39740,7 +39835,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G274:G285)</f>
         <v>2.7652006172839507E-3</v>
       </c>
-      <c r="D48" s="2"/>
+      <c r="D48" s="22">
+        <v>238.9</v>
+      </c>
       <c r="E48" t="s">
         <v>118</v>
       </c>
@@ -39757,7 +39854,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G286:G298)</f>
         <v>2.7620281339031339E-3</v>
       </c>
-      <c r="D49" s="2"/>
+      <c r="D49" s="22">
+        <v>238.6</v>
+      </c>
       <c r="E49" t="s">
         <v>118</v>
       </c>
@@ -39774,7 +39873,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G299:G313)</f>
         <v>2.7637422839506174E-3</v>
       </c>
-      <c r="D50" s="2"/>
+      <c r="D50" s="22">
+        <v>238.8</v>
+      </c>
       <c r="E50" t="s">
         <v>118</v>
       </c>
@@ -39791,7 +39892,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G314:G330)</f>
         <v>2.7568218954248367E-3</v>
       </c>
-      <c r="D51" s="2"/>
+      <c r="D51" s="22">
+        <v>238.2</v>
+      </c>
       <c r="E51" t="s">
         <v>118</v>
       </c>
@@ -39808,7 +39911,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G331:G350)</f>
         <v>2.7666087962962965E-3</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="D52" s="22">
+        <v>239</v>
+      </c>
       <c r="E52" t="s">
         <v>119</v>
       </c>
@@ -39825,7 +39930,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G351:G362)</f>
         <v>2.7589216820987656E-3</v>
       </c>
-      <c r="D53" s="2"/>
+      <c r="D53" s="22">
+        <v>238.4</v>
+      </c>
       <c r="E53" t="s">
         <v>119</v>
       </c>
@@ -39842,7 +39949,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G363:G385)</f>
         <v>2.7658514492753632E-3</v>
       </c>
-      <c r="D54" s="2"/>
+      <c r="D54" s="22">
+        <v>239</v>
+      </c>
       <c r="E54" t="s">
         <v>119</v>
       </c>
@@ -39859,7 +39968,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G386:G408)</f>
         <v>2.7647141706924313E-3</v>
       </c>
-      <c r="D55" s="2"/>
+      <c r="D55" s="22">
+        <v>238.9</v>
+      </c>
       <c r="E55" t="s">
         <v>119</v>
       </c>
@@ -39876,7 +39987,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G409:G426)</f>
         <v>2.7619984567901238E-3</v>
       </c>
-      <c r="D56" s="2"/>
+      <c r="D56" s="22">
+        <v>238.6</v>
+      </c>
       <c r="E56" t="s">
         <v>119</v>
       </c>
@@ -39893,7 +40006,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G427:G450)</f>
         <v>2.7656925154320986E-3</v>
       </c>
-      <c r="D57" s="2"/>
+      <c r="D57" s="22">
+        <v>239</v>
+      </c>
       <c r="E57" t="s">
         <v>119</v>
       </c>
@@ -39910,7 +40025,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G451:G477)</f>
         <v>2.7622899519890256E-3</v>
       </c>
-      <c r="D58" s="2"/>
+      <c r="D58" s="22">
+        <v>238.7</v>
+      </c>
       <c r="E58" t="s">
         <v>119</v>
       </c>
@@ -39927,7 +40044,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G478:G494)</f>
         <v>2.7646241830065355E-3</v>
       </c>
-      <c r="D59" s="2"/>
+      <c r="D59" s="22">
+        <v>238.9</v>
+      </c>
       <c r="E59" t="s">
         <v>119</v>
       </c>
@@ -39944,7 +40063,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G495:G523)</f>
         <v>2.7636454342273306E-3</v>
       </c>
-      <c r="D60" s="2"/>
+      <c r="D60" s="22">
+        <v>238.8</v>
+      </c>
       <c r="E60" t="s">
         <v>119</v>
       </c>
@@ -39961,7 +40082,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G524:G545)</f>
         <v>2.7666561447811447E-3</v>
       </c>
-      <c r="D61" s="2"/>
+      <c r="D61" s="22">
+        <v>239</v>
+      </c>
       <c r="E61" t="s">
         <v>119</v>
       </c>
@@ -39978,7 +40101,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G546:G564)</f>
         <v>2.7648574561403515E-3</v>
       </c>
-      <c r="D62" s="2"/>
+      <c r="D62" s="22">
+        <v>238.9</v>
+      </c>
       <c r="E62" t="s">
         <v>120</v>
       </c>
@@ -39995,7 +40120,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G565:G600)</f>
         <v>2.7602752057613168E-3</v>
       </c>
-      <c r="D63" s="2"/>
+      <c r="D63" s="22">
+        <v>238.5</v>
+      </c>
       <c r="E63" t="s">
         <v>120</v>
       </c>
@@ -40012,7 +40139,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G601:G660)</f>
         <v>2.7579398148148155E-3</v>
       </c>
-      <c r="D64" s="2"/>
+      <c r="D64" s="22">
+        <v>238.3</v>
+      </c>
       <c r="E64" t="s">
         <v>120</v>
       </c>
@@ -40096,8 +40225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CD72C3-FD29-42D6-B204-872167580F24}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40128,6 +40257,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G2)</f>
         <v>2.7627314814814819E-3</v>
       </c>
+      <c r="D2">
+        <v>238.7</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -40141,6 +40273,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G3:G32)</f>
         <v>2.7626427469135792E-3</v>
       </c>
+      <c r="D3">
+        <v>238.7</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -40154,6 +40289,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G33:G100)</f>
         <v>2.7644488698257085E-3</v>
       </c>
+      <c r="D4">
+        <v>238.8</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -40167,6 +40305,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G101:G169)</f>
         <v>2.7597457058507789E-3</v>
       </c>
+      <c r="D5">
+        <v>238.4</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -40180,6 +40321,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G170:G232)</f>
         <v>2.7619837595532037E-3</v>
       </c>
+      <c r="D6">
+        <v>238.6</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -40193,6 +40337,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G233:G330)</f>
         <v>2.7626263699924414E-3</v>
       </c>
+      <c r="D7">
+        <v>238.7</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -40206,6 +40353,9 @@
         <f>AVERAGE('US Sub-4 Milers'!G331:G545)</f>
         <v>2.7643136304909572E-3</v>
       </c>
+      <c r="D8">
+        <v>238.8</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -40218,6 +40368,9 @@
       <c r="C9" s="2">
         <f>AVERAGE('US Sub-4 Milers'!G546:G660)</f>
         <v>2.7598138083735914E-3</v>
+      </c>
+      <c r="D9">
+        <v>238.4</v>
       </c>
     </row>
   </sheetData>
@@ -40779,8 +40932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B390BB9-06BB-467C-AFF4-729369118CE1}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40832,11 +40985,15 @@
       <c r="B2" s="7">
         <v>2.7638888888888886E-3</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="12">
+        <v>238.8</v>
+      </c>
       <c r="D2" s="7">
         <v>2.7638888888888886E-3</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="12">
+        <v>238.8</v>
+      </c>
       <c r="F2" s="7">
         <f>B2-D2</f>
         <v>0</v>
@@ -40858,11 +41015,15 @@
       <c r="B3" s="7">
         <v>2.7766203703703703E-3</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12">
+        <v>239.9</v>
+      </c>
       <c r="D3" s="7">
         <v>2.7586805555555559E-3</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="12">
+        <v>238.4</v>
+      </c>
       <c r="F3" s="7">
         <f>B3-D3</f>
         <v>1.7939814814814381E-5</v>
@@ -40884,11 +41045,15 @@
       <c r="B4" s="7">
         <v>2.7685185185185187E-3</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="12">
+        <v>239.2</v>
+      </c>
       <c r="D4" s="7">
         <v>2.7192129629629632E-3</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="12">
+        <v>234.9</v>
+      </c>
       <c r="F4" s="7">
         <f t="shared" ref="F4:F13" si="0">B4-D4</f>
         <v>4.9305555555555474E-5</v>
@@ -40910,11 +41075,15 @@
       <c r="B5" s="7">
         <v>2.753703703703704E-3</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="12">
+        <v>237.9</v>
+      </c>
       <c r="D5" s="7">
         <v>2.6681712962962965E-3</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="12">
+        <v>230.5</v>
+      </c>
       <c r="F5" s="7">
         <f t="shared" si="0"/>
         <v>8.5532407407407432E-5</v>
@@ -40936,11 +41105,15 @@
       <c r="B6" s="7">
         <v>2.7627314814814819E-3</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="12">
+        <v>238.7</v>
+      </c>
       <c r="D6" s="7">
         <v>2.7395833333333335E-3</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="12">
+        <v>236.7</v>
+      </c>
       <c r="F6" s="7">
         <f t="shared" si="0"/>
         <v>2.3148148148148442E-5</v>
@@ -40962,11 +41135,15 @@
       <c r="B7" s="7">
         <v>2.7745370370370372E-3</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="12">
+        <v>239.7</v>
+      </c>
       <c r="D7" s="7">
         <v>2.7745370370370372E-3</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="12">
+        <v>239.7</v>
+      </c>
       <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -40988,11 +41165,15 @@
       <c r="B8" s="7">
         <v>2.7442129629629626E-3</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="12">
+        <v>237.1</v>
+      </c>
       <c r="D8" s="7">
         <v>2.6775462962962964E-3</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="12">
+        <v>231.3</v>
+      </c>
       <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>6.6666666666666263E-5</v>
@@ -41014,11 +41195,15 @@
       <c r="B9" s="7">
         <v>2.7484953703703703E-3</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12">
+        <v>237.5</v>
+      </c>
       <c r="D9" s="7">
         <v>2.6608796296296294E-3</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="12">
+        <v>229.9</v>
+      </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>8.761574074074097E-5</v>
@@ -41040,11 +41225,15 @@
       <c r="B10" s="7">
         <v>2.7563657407407411E-3</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="12">
+        <v>238.2</v>
+      </c>
       <c r="D10" s="7">
         <v>2.7212962962962963E-3</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="12">
+        <v>235.1</v>
+      </c>
       <c r="F10" s="7">
         <f t="shared" si="0"/>
         <v>3.5069444444444774E-5</v>
@@ -41066,11 +41255,15 @@
       <c r="B11" s="7">
         <v>2.772337962962963E-3</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="12">
+        <v>239.5</v>
+      </c>
       <c r="D11" s="7">
         <v>2.7506944444444445E-3</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="12">
+        <v>237.7</v>
+      </c>
       <c r="F11" s="7">
         <f t="shared" si="0"/>
         <v>2.1643518518518496E-5</v>
@@ -41092,11 +41285,15 @@
       <c r="B12" s="7">
         <v>2.7280092592592594E-3</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="12">
+        <v>235.7</v>
+      </c>
       <c r="D12" s="7">
         <v>2.7221064814814812E-3</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12">
+        <v>235.2</v>
+      </c>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
         <v>5.9027777777782842E-6</v>
@@ -41118,11 +41315,15 @@
       <c r="B13" s="7">
         <v>2.7666666666666668E-3</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="12">
+        <v>239</v>
+      </c>
       <c r="D13" s="7">
         <v>2.7391203703703705E-3</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="12">
+        <v>236.7</v>
+      </c>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>2.7546296296296346E-5</v>
@@ -41147,7 +41348,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41196,12 +41397,16 @@
         <f>AVERAGE('Fastest American Father Son Duo'!B6:B7)</f>
         <v>2.7686342592592597E-3</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="12">
+        <v>239.2</v>
+      </c>
       <c r="D2" s="7">
         <f>AVERAGE('Fastest American Father Son Duo'!C6:C7)</f>
         <v>2.7570601851851853E-3</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="12">
+        <v>238.2</v>
+      </c>
       <c r="F2" s="7">
         <f>AVERAGE('Fastest American Father Son Duo'!D6:D7)</f>
         <v>1.1574074074074221E-5</v>
@@ -41221,12 +41426,16 @@
         <f>AVERAGE('Fastest American Father Son Duo'!B2:B3)</f>
         <v>2.7702546296296295E-3</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12">
+        <v>239.3</v>
+      </c>
       <c r="D3" s="7">
         <f>AVERAGE('Fastest American Father Son Duo'!C2:C3)</f>
         <v>2.7612847222222223E-3</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="12">
+        <v>238.6</v>
+      </c>
       <c r="F3" s="7">
         <f>AVERAGE('Fastest American Father Son Duo'!D2:D3)</f>
         <v>8.9699074074071905E-6</v>
@@ -41246,12 +41455,16 @@
         <f>AVERAGE('Fastest American Father Son Duo'!B4:B5)</f>
         <v>2.7611111111111113E-3</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="12">
+        <v>238.6</v>
+      </c>
       <c r="D4" s="7">
         <f>AVERAGE('Fastest American Father Son Duo'!C4:C5)</f>
         <v>2.6936921296296301E-3</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="12">
+        <v>232.7</v>
+      </c>
       <c r="F4" s="7">
         <f>AVERAGE('Fastest American Father Son Duo'!D4:D5)</f>
         <v>6.7418981481481453E-5</v>
@@ -41271,12 +41484,16 @@
         <f>AVERAGE('Fastest American Father Son Duo'!B10:B11)</f>
         <v>2.764351851851852E-3</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="12">
+        <v>238.8</v>
+      </c>
       <c r="D5" s="7">
         <f>AVERAGE('Fastest American Father Son Duo'!C10:C11)</f>
         <v>2.7359953703703704E-3</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="12">
+        <v>236.4</v>
+      </c>
       <c r="F5" s="7">
         <f>AVERAGE('Fastest American Father Son Duo'!D10:D11)</f>
         <v>2.8356481481481635E-5</v>
@@ -41296,12 +41513,16 @@
         <f>AVERAGE('Fastest American Father Son Duo'!B8:B9)</f>
         <v>2.7463541666666665E-3</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="12">
+        <v>237.3</v>
+      </c>
       <c r="D6" s="7">
         <f>AVERAGE('Fastest American Father Son Duo'!C8:C9)</f>
         <v>2.6692129629629626E-3</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="12">
+        <v>230.6</v>
+      </c>
       <c r="F6" s="7">
         <f>AVERAGE('Fastest American Father Son Duo'!D8:D9)</f>
         <v>7.7141203703703616E-5</v>
@@ -41321,12 +41542,16 @@
         <f>AVERAGE('Fastest American Father Son Duo'!B12:B13)</f>
         <v>2.7473379629629631E-3</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="12">
+        <v>237.4</v>
+      </c>
       <c r="D7" s="7">
         <f>AVERAGE('Fastest American Father Son Duo'!C12:C13)</f>
         <v>2.7306134259259258E-3</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="12">
+        <v>235.9</v>
+      </c>
       <c r="F7" s="7">
         <f>AVERAGE('Fastest American Father Son Duo'!D12:D13)</f>
         <v>1.6724537037037315E-5</v>

--- a/spreadsheets/US_Sub4_Milers.xlsx
+++ b/spreadsheets/US_Sub4_Milers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ljcoo\NSS\Projects\United_States_Sub_4_Milers_Database\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AECAE3D-6C43-4B00-B9E9-ECEDA712E9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109EDF55-D17D-4462-A7BD-0E203CAEA123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3432" yWindow="1416" windowWidth="17280" windowHeight="10044" firstSheet="2" activeTab="4" xr2:uid="{FC2F9DD0-DB5D-4A46-B58C-40A2751618EA}"/>
+    <workbookView xWindow="3432" yWindow="1416" windowWidth="17280" windowHeight="10044" activeTab="6" xr2:uid="{FC2F9DD0-DB5D-4A46-B58C-40A2751618EA}"/>
   </bookViews>
   <sheets>
     <sheet name="US Sub-4 Milers" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="Faster &amp; Slower than Avg" sheetId="12" r:id="rId4"/>
     <sheet name="Sub-4 By Decade" sheetId="3" r:id="rId5"/>
     <sheet name="Avg # of Runners Sub-4 Per Dec" sheetId="4" r:id="rId6"/>
-    <sheet name="Fastest American Father Son Duo" sheetId="6" r:id="rId7"/>
-    <sheet name="FS Duo General" sheetId="7" r:id="rId8"/>
-    <sheet name="FS Duo Avg" sheetId="10" r:id="rId9"/>
+    <sheet name="Summary Tile Info" sheetId="13" r:id="rId7"/>
+    <sheet name="Fastest American Father Son Duo" sheetId="6" r:id="rId8"/>
+    <sheet name="FS Duo General" sheetId="7" r:id="rId9"/>
+    <sheet name="FS Duo Avg" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'US Sub-4 Milers'!$G$1:$G$660</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6147" uniqueCount="1743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6152" uniqueCount="1748">
   <si>
     <t>Stockton</t>
   </si>
@@ -5272,6 +5273,21 @@
   </si>
   <si>
     <t>ADFF_Sec</t>
+  </si>
+  <si>
+    <t>Total Number of Sub-4 Milers</t>
+  </si>
+  <si>
+    <t>Average Mile Time</t>
+  </si>
+  <si>
+    <t>Slowest Time</t>
+  </si>
+  <si>
+    <t>Fastest Time</t>
+  </si>
+  <si>
+    <t>Year of First American Sub-4 Mile</t>
   </si>
 </sst>
 </file>
@@ -5369,7 +5385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5398,6 +5414,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -38801,12 +38818,237 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D85CE0-4DCE-4B0B-810D-7D0F716F7306}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>1741</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>1742</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B2" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!B6:B7)</f>
+        <v>2.7686342592592597E-3</v>
+      </c>
+      <c r="C2" s="12">
+        <v>239.2</v>
+      </c>
+      <c r="D2" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!C6:C7)</f>
+        <v>2.7570601851851853E-3</v>
+      </c>
+      <c r="E2" s="12">
+        <v>238.2</v>
+      </c>
+      <c r="F2" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!D6:D7)</f>
+        <v>1.1574074074074221E-5</v>
+      </c>
+      <c r="G2" s="12">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12">
+        <v>15576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B3" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!B2:B3)</f>
+        <v>2.7702546296296295E-3</v>
+      </c>
+      <c r="C3" s="12">
+        <v>239.3</v>
+      </c>
+      <c r="D3" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!C2:C3)</f>
+        <v>2.7612847222222223E-3</v>
+      </c>
+      <c r="E3" s="12">
+        <v>238.6</v>
+      </c>
+      <c r="F3" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!D2:D3)</f>
+        <v>8.9699074074071905E-6</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="H3" s="12">
+        <v>12746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B4" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!B4:B5)</f>
+        <v>2.7611111111111113E-3</v>
+      </c>
+      <c r="C4" s="12">
+        <v>238.6</v>
+      </c>
+      <c r="D4" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!C4:C5)</f>
+        <v>2.6936921296296301E-3</v>
+      </c>
+      <c r="E4" s="12">
+        <v>232.7</v>
+      </c>
+      <c r="F4" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!D4:D5)</f>
+        <v>6.7418981481481453E-5</v>
+      </c>
+      <c r="G4" s="12">
+        <v>5.8</v>
+      </c>
+      <c r="H4" s="12">
+        <v>12320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B5" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!B10:B11)</f>
+        <v>2.764351851851852E-3</v>
+      </c>
+      <c r="C5" s="12">
+        <v>238.8</v>
+      </c>
+      <c r="D5" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!C10:C11)</f>
+        <v>2.7359953703703704E-3</v>
+      </c>
+      <c r="E5" s="12">
+        <v>236.4</v>
+      </c>
+      <c r="F5" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!D10:D11)</f>
+        <v>2.8356481481481635E-5</v>
+      </c>
+      <c r="G5" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="H5" s="12">
+        <v>8665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B6" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!B8:B9)</f>
+        <v>2.7463541666666665E-3</v>
+      </c>
+      <c r="C6" s="12">
+        <v>237.3</v>
+      </c>
+      <c r="D6" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!C8:C9)</f>
+        <v>2.6692129629629626E-3</v>
+      </c>
+      <c r="E6" s="12">
+        <v>230.6</v>
+      </c>
+      <c r="F6" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!D8:D9)</f>
+        <v>7.7141203703703616E-5</v>
+      </c>
+      <c r="G6" s="12">
+        <v>6.7</v>
+      </c>
+      <c r="H6" s="12">
+        <v>12313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B7" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!B12:B13)</f>
+        <v>2.7473379629629631E-3</v>
+      </c>
+      <c r="C7" s="12">
+        <v>237.4</v>
+      </c>
+      <c r="D7" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!C12:C13)</f>
+        <v>2.7306134259259258E-3</v>
+      </c>
+      <c r="E7" s="12">
+        <v>235.9</v>
+      </c>
+      <c r="F7" s="7">
+        <f>AVERAGE('Fastest American Father Son Duo'!D12:D13)</f>
+        <v>1.6724537037037315E-5</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="H7" s="12">
+        <v>12079</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8B6DD3-D17E-46BB-8A78-8AF8C223F2B2}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40225,7 +40467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CD72C3-FD29-42D6-B204-872167580F24}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -40474,6 +40716,62 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8383042-3FE7-492E-819C-4171300EAE0D}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.33203125" style="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>659</v>
+      </c>
+      <c r="B2" s="24">
+        <f>AVERAGE('US Sub-4 Milers'!G2:G660)</f>
+        <v>2.7625119428988936E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'General Stats'!$B$5</f>
+        <v>2.7770833333333332E-3</v>
+      </c>
+      <c r="D2" s="2">
+        <f>'General Stats'!$B$4</f>
+        <v>2.6484953703703705E-3</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1957</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E39F90-A8EC-480A-B778-EE85CEA603AD}">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -40928,7 +41226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B390BB9-06BB-467C-AFF4-729369118CE1}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -41341,229 +41639,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D85CE0-4DCE-4B0B-810D-7D0F716F7306}">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.21875" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="26.21875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="39.6640625" customWidth="1"/>
-    <col min="7" max="7" width="39.6640625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>1703</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1727</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>1740</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>1728</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>1741</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>1742</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>1713</v>
-      </c>
-      <c r="B2" s="7">
-        <f>AVERAGE('Fastest American Father Son Duo'!B6:B7)</f>
-        <v>2.7686342592592597E-3</v>
-      </c>
-      <c r="C2" s="12">
-        <v>239.2</v>
-      </c>
-      <c r="D2" s="7">
-        <f>AVERAGE('Fastest American Father Son Duo'!C6:C7)</f>
-        <v>2.7570601851851853E-3</v>
-      </c>
-      <c r="E2" s="12">
-        <v>238.2</v>
-      </c>
-      <c r="F2" s="7">
-        <f>AVERAGE('Fastest American Father Son Duo'!D6:D7)</f>
-        <v>1.1574074074074221E-5</v>
-      </c>
-      <c r="G2" s="12">
-        <v>1</v>
-      </c>
-      <c r="H2" s="12">
-        <v>15576</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="B3" s="7">
-        <f>AVERAGE('Fastest American Father Son Duo'!B2:B3)</f>
-        <v>2.7702546296296295E-3</v>
-      </c>
-      <c r="C3" s="12">
-        <v>239.3</v>
-      </c>
-      <c r="D3" s="7">
-        <f>AVERAGE('Fastest American Father Son Duo'!C2:C3)</f>
-        <v>2.7612847222222223E-3</v>
-      </c>
-      <c r="E3" s="12">
-        <v>238.6</v>
-      </c>
-      <c r="F3" s="7">
-        <f>AVERAGE('Fastest American Father Son Duo'!D2:D3)</f>
-        <v>8.9699074074071905E-6</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="H3" s="12">
-        <v>12746</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>1709</v>
-      </c>
-      <c r="B4" s="7">
-        <f>AVERAGE('Fastest American Father Son Duo'!B4:B5)</f>
-        <v>2.7611111111111113E-3</v>
-      </c>
-      <c r="C4" s="12">
-        <v>238.6</v>
-      </c>
-      <c r="D4" s="7">
-        <f>AVERAGE('Fastest American Father Son Duo'!C4:C5)</f>
-        <v>2.6936921296296301E-3</v>
-      </c>
-      <c r="E4" s="12">
-        <v>232.7</v>
-      </c>
-      <c r="F4" s="7">
-        <f>AVERAGE('Fastest American Father Son Duo'!D4:D5)</f>
-        <v>6.7418981481481453E-5</v>
-      </c>
-      <c r="G4" s="12">
-        <v>5.8</v>
-      </c>
-      <c r="H4" s="12">
-        <v>12320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>1721</v>
-      </c>
-      <c r="B5" s="7">
-        <f>AVERAGE('Fastest American Father Son Duo'!B10:B11)</f>
-        <v>2.764351851851852E-3</v>
-      </c>
-      <c r="C5" s="12">
-        <v>238.8</v>
-      </c>
-      <c r="D5" s="7">
-        <f>AVERAGE('Fastest American Father Son Duo'!C10:C11)</f>
-        <v>2.7359953703703704E-3</v>
-      </c>
-      <c r="E5" s="12">
-        <v>236.4</v>
-      </c>
-      <c r="F5" s="7">
-        <f>AVERAGE('Fastest American Father Son Duo'!D10:D11)</f>
-        <v>2.8356481481481635E-5</v>
-      </c>
-      <c r="G5" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="H5" s="12">
-        <v>8665</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>1716</v>
-      </c>
-      <c r="B6" s="7">
-        <f>AVERAGE('Fastest American Father Son Duo'!B8:B9)</f>
-        <v>2.7463541666666665E-3</v>
-      </c>
-      <c r="C6" s="12">
-        <v>237.3</v>
-      </c>
-      <c r="D6" s="7">
-        <f>AVERAGE('Fastest American Father Son Duo'!C8:C9)</f>
-        <v>2.6692129629629626E-3</v>
-      </c>
-      <c r="E6" s="12">
-        <v>230.6</v>
-      </c>
-      <c r="F6" s="7">
-        <f>AVERAGE('Fastest American Father Son Duo'!D8:D9)</f>
-        <v>7.7141203703703616E-5</v>
-      </c>
-      <c r="G6" s="12">
-        <v>6.7</v>
-      </c>
-      <c r="H6" s="12">
-        <v>12313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>1731</v>
-      </c>
-      <c r="B7" s="7">
-        <f>AVERAGE('Fastest American Father Son Duo'!B12:B13)</f>
-        <v>2.7473379629629631E-3</v>
-      </c>
-      <c r="C7" s="12">
-        <v>237.4</v>
-      </c>
-      <c r="D7" s="7">
-        <f>AVERAGE('Fastest American Father Son Duo'!C12:C13)</f>
-        <v>2.7306134259259258E-3</v>
-      </c>
-      <c r="E7" s="12">
-        <v>235.9</v>
-      </c>
-      <c r="F7" s="7">
-        <f>AVERAGE('Fastest American Father Son Duo'!D12:D13)</f>
-        <v>1.6724537037037315E-5</v>
-      </c>
-      <c r="G7" s="12">
-        <v>1.4</v>
-      </c>
-      <c r="H7" s="12">
-        <v>12079</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>